--- a/UHR.SW.xlsx
+++ b/UHR.SW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9299875B-4CF0-4F87-96B5-9E46A15DBA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC7E06-12FF-4E6A-A1B6-9CB264D78D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{B503D4ED-6C28-4F3F-8B49-F2AD3EFBCEC1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B503D4ED-6C28-4F3F-8B49-F2AD3EFBCEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Swatch Group</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Swatch Group Recherche and Development</t>
-  </si>
-  <si>
-    <t>CEO: Nayla Hayek</t>
   </si>
   <si>
     <t>Notes</t>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>UHR.SW</t>
+  </si>
+  <si>
+    <t>CEO: Nicloas Hayek</t>
+  </si>
+  <si>
+    <t>Founded: 1983</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,12 +693,12 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>168.6</v>
+        <v>148.05000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -704,19 +707,19 @@
         <v>51.604280000000003</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="7">
         <f>+I3*I4</f>
-        <v>8700.4816080000001</v>
+        <v>7640.0136540000012</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
         <v>1396</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -740,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,12 +752,17 @@
       </c>
       <c r="I8" s="7">
         <f>+I5-I6+I7</f>
-        <v>7326.4816080000001</v>
+        <v>6266.0136540000012</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -763,7 +771,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -773,7 +781,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -783,7 +791,7 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -793,7 +801,7 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -844,12 +852,12 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +873,7 @@
   <dimension ref="A1:BO481"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
@@ -879,44 +887,44 @@
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -990,7 +998,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1064,7 +1072,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1138,7 +1146,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1212,7 +1220,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1286,7 +1294,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1434,7 +1442,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1508,7 +1516,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1582,7 +1590,7 @@
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1656,7 +1664,7 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1730,7 +1738,7 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1804,7 +1812,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1878,7 +1886,7 @@
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1952,7 +1960,7 @@
     </row>
     <row r="17" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2040,7 +2048,7 @@
     </row>
     <row r="18" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2114,7 +2122,7 @@
     </row>
     <row r="19" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2188,7 +2196,7 @@
     </row>
     <row r="20" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2262,7 +2270,7 @@
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2350,7 +2358,7 @@
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2424,7 +2432,7 @@
     </row>
     <row r="23" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2498,7 +2506,7 @@
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2572,7 +2580,7 @@
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2646,7 +2654,7 @@
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2734,7 +2742,7 @@
     </row>
     <row r="27" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2808,7 +2816,7 @@
     </row>
     <row r="28" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2896,7 +2904,7 @@
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2970,7 +2978,7 @@
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>

--- a/UHR.SW.xlsx
+++ b/UHR.SW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC7E06-12FF-4E6A-A1B6-9CB264D78D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F4675-76EC-400A-B660-F0634E5D77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B503D4ED-6C28-4F3F-8B49-F2AD3EFBCEC1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Swatch Group</t>
   </si>
@@ -123,19 +123,7 @@
     <t>New Moonswatches</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>Q224</t>
-  </si>
-  <si>
-    <t>Q324</t>
   </si>
   <si>
     <t>FY19</t>
@@ -160,9 +148,6 @@
   </si>
   <si>
     <t>Watches &amp; Jewelery</t>
-  </si>
-  <si>
-    <t>Coporta</t>
   </si>
   <si>
     <t xml:space="preserve">Elimination </t>
@@ -216,9 +201,6 @@
     <t>Interest Expense</t>
   </si>
   <si>
-    <t>Income from subsidaries</t>
-  </si>
-  <si>
     <t>non-operating result</t>
   </si>
   <si>
@@ -247,6 +229,39 @@
   </si>
   <si>
     <t>Founded: 1983</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>H223</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>H224</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
+  </si>
+  <si>
+    <t>Loss from subsidaries</t>
+  </si>
+  <si>
+    <t>Corporate</t>
   </si>
 </sst>
 </file>
@@ -669,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55995E08-6EEC-4C67-B315-8755F2D5AADB}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,12 +708,12 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>148.05000000000001</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -707,19 +722,19 @@
         <v>51.604280000000003</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="7">
         <f>+I3*I4</f>
-        <v>7640.0136540000012</v>
+        <v>7229.7596279999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -727,11 +742,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <f>1103+293</f>
-        <v>1396</v>
+        <f>1031+245</f>
+        <v>1276</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,11 +754,11 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <f>20+2</f>
-        <v>22</v>
+        <f>185+2</f>
+        <v>187</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,17 +767,17 @@
       </c>
       <c r="I8" s="7">
         <f>+I5-I6+I7</f>
-        <v>6266.0136540000012</v>
+        <v>6140.7596279999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,13 +885,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D98F101-BB6B-4BAC-A4E6-9D359CE57C8B}">
-  <dimension ref="A1:BO481"/>
+  <dimension ref="A1:BS481"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,46 +900,58 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -935,16 +962,16 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
         <v>2122</v>
       </c>
-      <c r="M3" s="7">
+      <c r="Q3" s="7">
         <v>1868</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -995,10 +1022,14 @@
       <c r="BM3" s="7"/>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1009,16 +1040,16 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <v>4226</v>
       </c>
-      <c r="M4" s="7">
+      <c r="Q4" s="7">
         <v>3555</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1069,10 +1100,14 @@
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1083,16 +1118,16 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
         <v>1198</v>
       </c>
-      <c r="M5" s="7">
+      <c r="Q5" s="7">
         <v>1118</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1143,10 +1178,14 @@
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
       <c r="BO5" s="7"/>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1157,16 +1196,16 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
         <v>106</v>
       </c>
-      <c r="M6" s="7">
+      <c r="Q6" s="7">
         <v>93</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1217,10 +1256,14 @@
       <c r="BM6" s="7"/>
       <c r="BN6" s="7"/>
       <c r="BO6" s="7"/>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1231,16 +1274,16 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
         <v>36</v>
       </c>
-      <c r="M7" s="7">
+      <c r="Q7" s="7">
         <v>31</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1291,30 +1334,38 @@
       <c r="BM7" s="7"/>
       <c r="BN7" s="7"/>
       <c r="BO7" s="7"/>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>3300</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>2887</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
         <v>7546</v>
       </c>
-      <c r="M8" s="7">
+      <c r="Q8" s="7">
         <v>6418</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1365,8 +1416,12 @@
       <c r="BM8" s="7"/>
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1374,21 +1429,25 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>153</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>178</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7">
         <v>359</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>330</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1439,30 +1498,38 @@
       <c r="BM9" s="7"/>
       <c r="BN9" s="7"/>
       <c r="BO9" s="7"/>
-    </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>4</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
         <v>9</v>
       </c>
-      <c r="M10" s="7">
+      <c r="Q10" s="7">
         <v>8</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1513,30 +1580,38 @@
       <c r="BM10" s="7"/>
       <c r="BN10" s="7"/>
       <c r="BO10" s="7"/>
-    </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>-12</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>-10</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
         <v>-26</v>
       </c>
-      <c r="M11" s="7">
+      <c r="Q11" s="7">
         <v>-21</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1587,30 +1662,38 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>3445</v>
+      </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <v>3059</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
         <v>7888</v>
       </c>
-      <c r="M12" s="8">
+      <c r="Q12" s="8">
         <v>6735</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -1661,30 +1744,38 @@
       <c r="BM12" s="7"/>
       <c r="BN12" s="7"/>
       <c r="BO12" s="7"/>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>61</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>68</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
         <v>136</v>
       </c>
-      <c r="M13" s="7">
+      <c r="Q13" s="7">
         <v>263</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -1735,30 +1826,38 @@
       <c r="BM13" s="7"/>
       <c r="BN13" s="7"/>
       <c r="BO13" s="7"/>
-    </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>268</v>
+      </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>43</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
         <v>687</v>
       </c>
-      <c r="M14" s="7">
+      <c r="Q14" s="7">
         <v>213</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -1809,30 +1908,38 @@
       <c r="BM14" s="7"/>
       <c r="BN14" s="7"/>
       <c r="BO14" s="7"/>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>798</v>
+      </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>549</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
         <v>1864</v>
       </c>
-      <c r="M15" s="7">
+      <c r="Q15" s="7">
         <v>1345</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1883,30 +1990,38 @@
       <c r="BM15" s="7"/>
       <c r="BN15" s="7"/>
       <c r="BO15" s="7"/>
-    </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>1316</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>1227</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
         <v>2550</v>
       </c>
-      <c r="M16" s="7">
+      <c r="Q16" s="7">
         <v>2506</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -1957,44 +2072,72 @@
       <c r="BM16" s="7"/>
       <c r="BN16" s="7"/>
       <c r="BO16" s="7"/>
-    </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+    </row>
+    <row r="17" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="7">
+        <f t="shared" ref="C17:J17" si="0">+C12+SUM(C13:C14)-SUM(C15:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H17:L17" si="0">+H12+SUM(H13:H14)-SUM(H15:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="0"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:P17" si="1">+L12+SUM(L13:L14)-SUM(L15:L16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="7">
-        <f t="shared" si="0"/>
+      <c r="M17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
         <v>4297</v>
       </c>
-      <c r="M17" s="7">
-        <f>+M12+SUM(M13:M14)-SUM(M15:M16)</f>
+      <c r="Q17" s="7">
+        <f>+Q12+SUM(Q13:Q14)-SUM(Q15:Q16)</f>
         <v>3360</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -2045,30 +2188,38 @@
       <c r="BM17" s="7"/>
       <c r="BN17" s="7"/>
       <c r="BO17" s="7"/>
-    </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+    </row>
+    <row r="18" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>177</v>
+      </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>186</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
         <v>346</v>
       </c>
-      <c r="M18" s="7">
+      <c r="Q18" s="7">
         <v>368</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -2119,30 +2270,38 @@
       <c r="BM18" s="7"/>
       <c r="BN18" s="7"/>
       <c r="BO18" s="7"/>
-    </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+    </row>
+    <row r="19" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>25</v>
+      </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>22</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
         <v>44</v>
       </c>
-      <c r="M19" s="7">
+      <c r="Q19" s="7">
         <v>48</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -2193,30 +2352,38 @@
       <c r="BM19" s="7"/>
       <c r="BN19" s="7"/>
       <c r="BO19" s="7"/>
-    </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+    </row>
+    <row r="20" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>1254</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>1118</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
         <v>2716</v>
       </c>
-      <c r="M20" s="7">
+      <c r="Q20" s="7">
         <v>2640</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -2267,44 +2434,66 @@
       <c r="BM20" s="7"/>
       <c r="BN20" s="7"/>
       <c r="BO20" s="7"/>
-    </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+    </row>
+    <row r="21" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:J21" si="2">+E17-SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
       <c r="H21" s="7">
-        <f t="shared" ref="H21:L21" si="1">+H17-SUM(H18:H20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" si="1"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <f t="shared" ref="L21:P21" si="3">+L17-SUM(L18:L20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="1"/>
+      <c r="M21" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="7">
-        <f t="shared" si="1"/>
+      <c r="N21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="3"/>
         <v>1191</v>
       </c>
-      <c r="M21" s="7">
-        <f>+M17-SUM(M18:M20)</f>
+      <c r="Q21" s="7">
+        <f>+Q17-SUM(Q18:Q20)</f>
         <v>304</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2355,30 +2544,38 @@
       <c r="BM21" s="7"/>
       <c r="BN21" s="7"/>
       <c r="BO21" s="7"/>
-    </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+    </row>
+    <row r="22" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>22</v>
+      </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>-8</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
         <v>-36</v>
       </c>
-      <c r="M22" s="7">
+      <c r="Q22" s="7">
         <v>44</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2429,30 +2626,38 @@
       <c r="BM22" s="7"/>
       <c r="BN22" s="7"/>
       <c r="BO22" s="7"/>
-    </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+    </row>
+    <row r="23" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <v>4</v>
       </c>
-      <c r="M23" s="7">
+      <c r="Q23" s="7">
         <v>3</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2503,30 +2708,38 @@
       <c r="BM23" s="7"/>
       <c r="BN23" s="7"/>
       <c r="BO23" s="7"/>
-    </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+    </row>
+    <row r="24" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>-4</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <v>1</v>
       </c>
-      <c r="M24" s="7">
+      <c r="Q24" s="7">
         <v>2</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -2577,30 +2790,38 @@
       <c r="BM24" s="7"/>
       <c r="BN24" s="7"/>
       <c r="BO24" s="7"/>
-    </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+    </row>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7">
+        <v>9</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="7">
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
         <v>2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="Q25" s="7">
         <v>2</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2651,44 +2872,72 @@
       <c r="BM25" s="7"/>
       <c r="BN25" s="7"/>
       <c r="BO25" s="7"/>
-    </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+    </row>
+    <row r="26" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="7">
+        <f t="shared" ref="C26:J26" si="4">+C21+C22-C23-C24+C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
       <c r="H26" s="7">
-        <f t="shared" ref="H26:L26" si="2">+H21+H22-H23-H24+H25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="2"/>
+        <f>+I21+I22-I23-I24+I25</f>
+        <v>72</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J26" s="7">
-        <f t="shared" si="2"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <f t="shared" ref="L26:P26" si="5">+L21+L22-L23-L24+L25</f>
         <v>0</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="2"/>
+      <c r="M26" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="7">
-        <f t="shared" si="2"/>
+      <c r="N26" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="5"/>
         <v>1152</v>
       </c>
-      <c r="M26" s="7">
-        <f>+M21+M22-M23-M24+M25</f>
+      <c r="Q26" s="7">
+        <f>+Q21+Q22-Q23-Q24+Q25</f>
         <v>345</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -2739,30 +2988,38 @@
       <c r="BM26" s="7"/>
       <c r="BN26" s="7"/>
       <c r="BO26" s="7"/>
-    </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+    </row>
+    <row r="27" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>78</v>
+      </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="7">
+        <v>55</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="7">
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7">
         <v>262</v>
       </c>
-      <c r="M27" s="7">
+      <c r="Q27" s="7">
         <v>126</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2813,44 +3070,72 @@
       <c r="BM27" s="7"/>
       <c r="BN27" s="7"/>
       <c r="BO27" s="7"/>
-    </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+    </row>
+    <row r="28" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:J28" si="6">+C26-C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:L28" si="3">+H26-H27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J28" s="7">
-        <f t="shared" si="3"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
+        <f t="shared" ref="L28:P28" si="7">+L26-L27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="3"/>
+      <c r="M28" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" si="3"/>
+      <c r="N28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="7"/>
         <v>890</v>
       </c>
-      <c r="M28" s="7">
-        <f>+M26-M27</f>
+      <c r="Q28" s="7">
+        <f>+Q26-Q27</f>
         <v>219</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2901,30 +3186,38 @@
       <c r="BM28" s="7"/>
       <c r="BN28" s="7"/>
       <c r="BO28" s="7"/>
-    </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>11</v>
+      </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7">
+        <v>3</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="7">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7">
         <v>21</v>
       </c>
-      <c r="M29" s="7">
+      <c r="Q29" s="7">
         <v>26</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2975,44 +3268,69 @@
       <c r="BM29" s="7"/>
       <c r="BN29" s="7"/>
       <c r="BO29" s="7"/>
-    </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+    </row>
+    <row r="30" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="7">
+        <f t="shared" ref="D30:J30" si="8">+D28-D29</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:L30" si="4">+H28-H29</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J30" s="7">
-        <f t="shared" si="4"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
+        <f t="shared" ref="L30:P30" si="9">+L28-L29</f>
         <v>0</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="4"/>
+      <c r="M30" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L30" s="7">
-        <f t="shared" si="4"/>
+      <c r="N30" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="9"/>
         <v>869</v>
       </c>
-      <c r="M30" s="7">
-        <f>+M28-M29</f>
+      <c r="Q30" s="7">
+        <f>+Q28-Q29</f>
         <v>193</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3063,8 +3381,12 @@
       <c r="BM30" s="7"/>
       <c r="BN30" s="7"/>
       <c r="BO30" s="7"/>
-    </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+    </row>
+    <row r="31" spans="2:71" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -3130,8 +3452,12 @@
       <c r="BM31" s="7"/>
       <c r="BN31" s="7"/>
       <c r="BO31" s="7"/>
-    </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BP31" s="7"/>
+      <c r="BQ31" s="7"/>
+      <c r="BR31" s="7"/>
+      <c r="BS31" s="7"/>
+    </row>
+    <row r="32" spans="2:71" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -3197,8 +3523,12 @@
       <c r="BM32" s="7"/>
       <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
-    </row>
-    <row r="33" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
+      <c r="BS32" s="7"/>
+    </row>
+    <row r="33" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -3264,8 +3594,12 @@
       <c r="BM33" s="7"/>
       <c r="BN33" s="7"/>
       <c r="BO33" s="7"/>
-    </row>
-    <row r="34" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
+    </row>
+    <row r="34" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -3331,8 +3665,12 @@
       <c r="BM34" s="7"/>
       <c r="BN34" s="7"/>
       <c r="BO34" s="7"/>
-    </row>
-    <row r="35" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+    </row>
+    <row r="35" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -3398,8 +3736,12 @@
       <c r="BM35" s="7"/>
       <c r="BN35" s="7"/>
       <c r="BO35" s="7"/>
-    </row>
-    <row r="36" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP35" s="7"/>
+      <c r="BQ35" s="7"/>
+      <c r="BR35" s="7"/>
+      <c r="BS35" s="7"/>
+    </row>
+    <row r="36" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -3465,8 +3807,12 @@
       <c r="BM36" s="7"/>
       <c r="BN36" s="7"/>
       <c r="BO36" s="7"/>
-    </row>
-    <row r="37" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP36" s="7"/>
+      <c r="BQ36" s="7"/>
+      <c r="BR36" s="7"/>
+      <c r="BS36" s="7"/>
+    </row>
+    <row r="37" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -3532,8 +3878,12 @@
       <c r="BM37" s="7"/>
       <c r="BN37" s="7"/>
       <c r="BO37" s="7"/>
-    </row>
-    <row r="38" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
+    </row>
+    <row r="38" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -3599,8 +3949,12 @@
       <c r="BM38" s="7"/>
       <c r="BN38" s="7"/>
       <c r="BO38" s="7"/>
-    </row>
-    <row r="39" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP38" s="7"/>
+      <c r="BQ38" s="7"/>
+      <c r="BR38" s="7"/>
+      <c r="BS38" s="7"/>
+    </row>
+    <row r="39" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -3666,8 +4020,12 @@
       <c r="BM39" s="7"/>
       <c r="BN39" s="7"/>
       <c r="BO39" s="7"/>
-    </row>
-    <row r="40" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP39" s="7"/>
+      <c r="BQ39" s="7"/>
+      <c r="BR39" s="7"/>
+      <c r="BS39" s="7"/>
+    </row>
+    <row r="40" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -3733,8 +4091,12 @@
       <c r="BM40" s="7"/>
       <c r="BN40" s="7"/>
       <c r="BO40" s="7"/>
-    </row>
-    <row r="41" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP40" s="7"/>
+      <c r="BQ40" s="7"/>
+      <c r="BR40" s="7"/>
+      <c r="BS40" s="7"/>
+    </row>
+    <row r="41" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -3800,8 +4162,12 @@
       <c r="BM41" s="7"/>
       <c r="BN41" s="7"/>
       <c r="BO41" s="7"/>
-    </row>
-    <row r="42" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+    </row>
+    <row r="42" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -3867,8 +4233,12 @@
       <c r="BM42" s="7"/>
       <c r="BN42" s="7"/>
       <c r="BO42" s="7"/>
-    </row>
-    <row r="43" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP42" s="7"/>
+      <c r="BQ42" s="7"/>
+      <c r="BR42" s="7"/>
+      <c r="BS42" s="7"/>
+    </row>
+    <row r="43" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -3934,8 +4304,12 @@
       <c r="BM43" s="7"/>
       <c r="BN43" s="7"/>
       <c r="BO43" s="7"/>
-    </row>
-    <row r="44" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP43" s="7"/>
+      <c r="BQ43" s="7"/>
+      <c r="BR43" s="7"/>
+      <c r="BS43" s="7"/>
+    </row>
+    <row r="44" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -4001,8 +4375,12 @@
       <c r="BM44" s="7"/>
       <c r="BN44" s="7"/>
       <c r="BO44" s="7"/>
-    </row>
-    <row r="45" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP44" s="7"/>
+      <c r="BQ44" s="7"/>
+      <c r="BR44" s="7"/>
+      <c r="BS44" s="7"/>
+    </row>
+    <row r="45" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -4068,8 +4446,12 @@
       <c r="BM45" s="7"/>
       <c r="BN45" s="7"/>
       <c r="BO45" s="7"/>
-    </row>
-    <row r="46" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP45" s="7"/>
+      <c r="BQ45" s="7"/>
+      <c r="BR45" s="7"/>
+      <c r="BS45" s="7"/>
+    </row>
+    <row r="46" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -4135,8 +4517,12 @@
       <c r="BM46" s="7"/>
       <c r="BN46" s="7"/>
       <c r="BO46" s="7"/>
-    </row>
-    <row r="47" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP46" s="7"/>
+      <c r="BQ46" s="7"/>
+      <c r="BR46" s="7"/>
+      <c r="BS46" s="7"/>
+    </row>
+    <row r="47" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -4202,8 +4588,12 @@
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
       <c r="BO47" s="7"/>
-    </row>
-    <row r="48" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP47" s="7"/>
+      <c r="BQ47" s="7"/>
+      <c r="BR47" s="7"/>
+      <c r="BS47" s="7"/>
+    </row>
+    <row r="48" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -4269,8 +4659,12 @@
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
       <c r="BO48" s="7"/>
-    </row>
-    <row r="49" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP48" s="7"/>
+      <c r="BQ48" s="7"/>
+      <c r="BR48" s="7"/>
+      <c r="BS48" s="7"/>
+    </row>
+    <row r="49" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -4336,8 +4730,12 @@
       <c r="BM49" s="7"/>
       <c r="BN49" s="7"/>
       <c r="BO49" s="7"/>
-    </row>
-    <row r="50" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP49" s="7"/>
+      <c r="BQ49" s="7"/>
+      <c r="BR49" s="7"/>
+      <c r="BS49" s="7"/>
+    </row>
+    <row r="50" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -4403,8 +4801,12 @@
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
       <c r="BO50" s="7"/>
-    </row>
-    <row r="51" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP50" s="7"/>
+      <c r="BQ50" s="7"/>
+      <c r="BR50" s="7"/>
+      <c r="BS50" s="7"/>
+    </row>
+    <row r="51" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -4470,8 +4872,12 @@
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
       <c r="BO51" s="7"/>
-    </row>
-    <row r="52" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP51" s="7"/>
+      <c r="BQ51" s="7"/>
+      <c r="BR51" s="7"/>
+      <c r="BS51" s="7"/>
+    </row>
+    <row r="52" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -4537,8 +4943,12 @@
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
       <c r="BO52" s="7"/>
-    </row>
-    <row r="53" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP52" s="7"/>
+      <c r="BQ52" s="7"/>
+      <c r="BR52" s="7"/>
+      <c r="BS52" s="7"/>
+    </row>
+    <row r="53" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -4604,8 +5014,12 @@
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
       <c r="BO53" s="7"/>
-    </row>
-    <row r="54" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP53" s="7"/>
+      <c r="BQ53" s="7"/>
+      <c r="BR53" s="7"/>
+      <c r="BS53" s="7"/>
+    </row>
+    <row r="54" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -4671,8 +5085,12 @@
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
       <c r="BO54" s="7"/>
-    </row>
-    <row r="55" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP54" s="7"/>
+      <c r="BQ54" s="7"/>
+      <c r="BR54" s="7"/>
+      <c r="BS54" s="7"/>
+    </row>
+    <row r="55" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -4738,8 +5156,12 @@
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
       <c r="BO55" s="7"/>
-    </row>
-    <row r="56" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP55" s="7"/>
+      <c r="BQ55" s="7"/>
+      <c r="BR55" s="7"/>
+      <c r="BS55" s="7"/>
+    </row>
+    <row r="56" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -4805,8 +5227,12 @@
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
       <c r="BO56" s="7"/>
-    </row>
-    <row r="57" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP56" s="7"/>
+      <c r="BQ56" s="7"/>
+      <c r="BR56" s="7"/>
+      <c r="BS56" s="7"/>
+    </row>
+    <row r="57" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -4872,8 +5298,12 @@
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
-    </row>
-    <row r="58" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP57" s="7"/>
+      <c r="BQ57" s="7"/>
+      <c r="BR57" s="7"/>
+      <c r="BS57" s="7"/>
+    </row>
+    <row r="58" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -4939,8 +5369,12 @@
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
       <c r="BO58" s="7"/>
-    </row>
-    <row r="59" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP58" s="7"/>
+      <c r="BQ58" s="7"/>
+      <c r="BR58" s="7"/>
+      <c r="BS58" s="7"/>
+    </row>
+    <row r="59" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -5006,8 +5440,12 @@
       <c r="BM59" s="7"/>
       <c r="BN59" s="7"/>
       <c r="BO59" s="7"/>
-    </row>
-    <row r="60" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP59" s="7"/>
+      <c r="BQ59" s="7"/>
+      <c r="BR59" s="7"/>
+      <c r="BS59" s="7"/>
+    </row>
+    <row r="60" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -5073,8 +5511,12 @@
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
       <c r="BO60" s="7"/>
-    </row>
-    <row r="61" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP60" s="7"/>
+      <c r="BQ60" s="7"/>
+      <c r="BR60" s="7"/>
+      <c r="BS60" s="7"/>
+    </row>
+    <row r="61" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -5140,8 +5582,12 @@
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
       <c r="BO61" s="7"/>
-    </row>
-    <row r="62" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="7"/>
+      <c r="BR61" s="7"/>
+      <c r="BS61" s="7"/>
+    </row>
+    <row r="62" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5207,8 +5653,12 @@
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
       <c r="BO62" s="7"/>
-    </row>
-    <row r="63" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP62" s="7"/>
+      <c r="BQ62" s="7"/>
+      <c r="BR62" s="7"/>
+      <c r="BS62" s="7"/>
+    </row>
+    <row r="63" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5274,8 +5724,12 @@
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
       <c r="BO63" s="7"/>
-    </row>
-    <row r="64" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP63" s="7"/>
+      <c r="BQ63" s="7"/>
+      <c r="BR63" s="7"/>
+      <c r="BS63" s="7"/>
+    </row>
+    <row r="64" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5341,8 +5795,12 @@
       <c r="BM64" s="7"/>
       <c r="BN64" s="7"/>
       <c r="BO64" s="7"/>
-    </row>
-    <row r="65" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP64" s="7"/>
+      <c r="BQ64" s="7"/>
+      <c r="BR64" s="7"/>
+      <c r="BS64" s="7"/>
+    </row>
+    <row r="65" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5408,8 +5866,12 @@
       <c r="BM65" s="7"/>
       <c r="BN65" s="7"/>
       <c r="BO65" s="7"/>
-    </row>
-    <row r="66" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP65" s="7"/>
+      <c r="BQ65" s="7"/>
+      <c r="BR65" s="7"/>
+      <c r="BS65" s="7"/>
+    </row>
+    <row r="66" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5475,8 +5937,12 @@
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
       <c r="BO66" s="7"/>
-    </row>
-    <row r="67" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP66" s="7"/>
+      <c r="BQ66" s="7"/>
+      <c r="BR66" s="7"/>
+      <c r="BS66" s="7"/>
+    </row>
+    <row r="67" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5542,8 +6008,12 @@
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
       <c r="BO67" s="7"/>
-    </row>
-    <row r="68" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP67" s="7"/>
+      <c r="BQ67" s="7"/>
+      <c r="BR67" s="7"/>
+      <c r="BS67" s="7"/>
+    </row>
+    <row r="68" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -5609,8 +6079,12 @@
       <c r="BM68" s="7"/>
       <c r="BN68" s="7"/>
       <c r="BO68" s="7"/>
-    </row>
-    <row r="69" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP68" s="7"/>
+      <c r="BQ68" s="7"/>
+      <c r="BR68" s="7"/>
+      <c r="BS68" s="7"/>
+    </row>
+    <row r="69" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -5676,8 +6150,12 @@
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
       <c r="BO69" s="7"/>
-    </row>
-    <row r="70" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP69" s="7"/>
+      <c r="BQ69" s="7"/>
+      <c r="BR69" s="7"/>
+      <c r="BS69" s="7"/>
+    </row>
+    <row r="70" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5743,8 +6221,12 @@
       <c r="BM70" s="7"/>
       <c r="BN70" s="7"/>
       <c r="BO70" s="7"/>
-    </row>
-    <row r="71" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP70" s="7"/>
+      <c r="BQ70" s="7"/>
+      <c r="BR70" s="7"/>
+      <c r="BS70" s="7"/>
+    </row>
+    <row r="71" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -5810,8 +6292,12 @@
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
       <c r="BO71" s="7"/>
-    </row>
-    <row r="72" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP71" s="7"/>
+      <c r="BQ71" s="7"/>
+      <c r="BR71" s="7"/>
+      <c r="BS71" s="7"/>
+    </row>
+    <row r="72" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -5877,8 +6363,12 @@
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
       <c r="BO72" s="7"/>
-    </row>
-    <row r="73" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP72" s="7"/>
+      <c r="BQ72" s="7"/>
+      <c r="BR72" s="7"/>
+      <c r="BS72" s="7"/>
+    </row>
+    <row r="73" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -5944,8 +6434,12 @@
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
       <c r="BO73" s="7"/>
-    </row>
-    <row r="74" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
+      <c r="BR73" s="7"/>
+      <c r="BS73" s="7"/>
+    </row>
+    <row r="74" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -6011,8 +6505,12 @@
       <c r="BM74" s="7"/>
       <c r="BN74" s="7"/>
       <c r="BO74" s="7"/>
-    </row>
-    <row r="75" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP74" s="7"/>
+      <c r="BQ74" s="7"/>
+      <c r="BR74" s="7"/>
+      <c r="BS74" s="7"/>
+    </row>
+    <row r="75" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -6078,8 +6576,12 @@
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
       <c r="BO75" s="7"/>
-    </row>
-    <row r="76" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="7"/>
+    </row>
+    <row r="76" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -6145,8 +6647,12 @@
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
       <c r="BO76" s="7"/>
-    </row>
-    <row r="77" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP76" s="7"/>
+      <c r="BQ76" s="7"/>
+      <c r="BR76" s="7"/>
+      <c r="BS76" s="7"/>
+    </row>
+    <row r="77" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -6212,8 +6718,12 @@
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
       <c r="BO77" s="7"/>
-    </row>
-    <row r="78" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP77" s="7"/>
+      <c r="BQ77" s="7"/>
+      <c r="BR77" s="7"/>
+      <c r="BS77" s="7"/>
+    </row>
+    <row r="78" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -6279,8 +6789,12 @@
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
       <c r="BO78" s="7"/>
-    </row>
-    <row r="79" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP78" s="7"/>
+      <c r="BQ78" s="7"/>
+      <c r="BR78" s="7"/>
+      <c r="BS78" s="7"/>
+    </row>
+    <row r="79" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -6346,8 +6860,12 @@
       <c r="BM79" s="7"/>
       <c r="BN79" s="7"/>
       <c r="BO79" s="7"/>
-    </row>
-    <row r="80" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP79" s="7"/>
+      <c r="BQ79" s="7"/>
+      <c r="BR79" s="7"/>
+      <c r="BS79" s="7"/>
+    </row>
+    <row r="80" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -6413,8 +6931,12 @@
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
       <c r="BO80" s="7"/>
-    </row>
-    <row r="81" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP80" s="7"/>
+      <c r="BQ80" s="7"/>
+      <c r="BR80" s="7"/>
+      <c r="BS80" s="7"/>
+    </row>
+    <row r="81" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -6480,8 +7002,12 @@
       <c r="BM81" s="7"/>
       <c r="BN81" s="7"/>
       <c r="BO81" s="7"/>
-    </row>
-    <row r="82" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP81" s="7"/>
+      <c r="BQ81" s="7"/>
+      <c r="BR81" s="7"/>
+      <c r="BS81" s="7"/>
+    </row>
+    <row r="82" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6547,8 +7073,12 @@
       <c r="BM82" s="7"/>
       <c r="BN82" s="7"/>
       <c r="BO82" s="7"/>
-    </row>
-    <row r="83" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
+      <c r="BR82" s="7"/>
+      <c r="BS82" s="7"/>
+    </row>
+    <row r="83" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6614,8 +7144,12 @@
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
       <c r="BO83" s="7"/>
-    </row>
-    <row r="84" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
+      <c r="BR83" s="7"/>
+      <c r="BS83" s="7"/>
+    </row>
+    <row r="84" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6681,8 +7215,12 @@
       <c r="BM84" s="7"/>
       <c r="BN84" s="7"/>
       <c r="BO84" s="7"/>
-    </row>
-    <row r="85" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP84" s="7"/>
+      <c r="BQ84" s="7"/>
+      <c r="BR84" s="7"/>
+      <c r="BS84" s="7"/>
+    </row>
+    <row r="85" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -6748,8 +7286,12 @@
       <c r="BM85" s="7"/>
       <c r="BN85" s="7"/>
       <c r="BO85" s="7"/>
-    </row>
-    <row r="86" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP85" s="7"/>
+      <c r="BQ85" s="7"/>
+      <c r="BR85" s="7"/>
+      <c r="BS85" s="7"/>
+    </row>
+    <row r="86" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6815,8 +7357,12 @@
       <c r="BM86" s="7"/>
       <c r="BN86" s="7"/>
       <c r="BO86" s="7"/>
-    </row>
-    <row r="87" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP86" s="7"/>
+      <c r="BQ86" s="7"/>
+      <c r="BR86" s="7"/>
+      <c r="BS86" s="7"/>
+    </row>
+    <row r="87" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6882,8 +7428,12 @@
       <c r="BM87" s="7"/>
       <c r="BN87" s="7"/>
       <c r="BO87" s="7"/>
-    </row>
-    <row r="88" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP87" s="7"/>
+      <c r="BQ87" s="7"/>
+      <c r="BR87" s="7"/>
+      <c r="BS87" s="7"/>
+    </row>
+    <row r="88" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6949,8 +7499,12 @@
       <c r="BM88" s="7"/>
       <c r="BN88" s="7"/>
       <c r="BO88" s="7"/>
-    </row>
-    <row r="89" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP88" s="7"/>
+      <c r="BQ88" s="7"/>
+      <c r="BR88" s="7"/>
+      <c r="BS88" s="7"/>
+    </row>
+    <row r="89" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -7016,8 +7570,12 @@
       <c r="BM89" s="7"/>
       <c r="BN89" s="7"/>
       <c r="BO89" s="7"/>
-    </row>
-    <row r="90" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP89" s="7"/>
+      <c r="BQ89" s="7"/>
+      <c r="BR89" s="7"/>
+      <c r="BS89" s="7"/>
+    </row>
+    <row r="90" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -7083,8 +7641,12 @@
       <c r="BM90" s="7"/>
       <c r="BN90" s="7"/>
       <c r="BO90" s="7"/>
-    </row>
-    <row r="91" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP90" s="7"/>
+      <c r="BQ90" s="7"/>
+      <c r="BR90" s="7"/>
+      <c r="BS90" s="7"/>
+    </row>
+    <row r="91" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -7150,8 +7712,12 @@
       <c r="BM91" s="7"/>
       <c r="BN91" s="7"/>
       <c r="BO91" s="7"/>
-    </row>
-    <row r="92" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP91" s="7"/>
+      <c r="BQ91" s="7"/>
+      <c r="BR91" s="7"/>
+      <c r="BS91" s="7"/>
+    </row>
+    <row r="92" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -7217,8 +7783,12 @@
       <c r="BM92" s="7"/>
       <c r="BN92" s="7"/>
       <c r="BO92" s="7"/>
-    </row>
-    <row r="93" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP92" s="7"/>
+      <c r="BQ92" s="7"/>
+      <c r="BR92" s="7"/>
+      <c r="BS92" s="7"/>
+    </row>
+    <row r="93" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -7284,8 +7854,12 @@
       <c r="BM93" s="7"/>
       <c r="BN93" s="7"/>
       <c r="BO93" s="7"/>
-    </row>
-    <row r="94" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP93" s="7"/>
+      <c r="BQ93" s="7"/>
+      <c r="BR93" s="7"/>
+      <c r="BS93" s="7"/>
+    </row>
+    <row r="94" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -7351,8 +7925,12 @@
       <c r="BM94" s="7"/>
       <c r="BN94" s="7"/>
       <c r="BO94" s="7"/>
-    </row>
-    <row r="95" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP94" s="7"/>
+      <c r="BQ94" s="7"/>
+      <c r="BR94" s="7"/>
+      <c r="BS94" s="7"/>
+    </row>
+    <row r="95" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -7418,8 +7996,12 @@
       <c r="BM95" s="7"/>
       <c r="BN95" s="7"/>
       <c r="BO95" s="7"/>
-    </row>
-    <row r="96" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP95" s="7"/>
+      <c r="BQ95" s="7"/>
+      <c r="BR95" s="7"/>
+      <c r="BS95" s="7"/>
+    </row>
+    <row r="96" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -7485,8 +8067,12 @@
       <c r="BM96" s="7"/>
       <c r="BN96" s="7"/>
       <c r="BO96" s="7"/>
-    </row>
-    <row r="97" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP96" s="7"/>
+      <c r="BQ96" s="7"/>
+      <c r="BR96" s="7"/>
+      <c r="BS96" s="7"/>
+    </row>
+    <row r="97" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -7552,8 +8138,12 @@
       <c r="BM97" s="7"/>
       <c r="BN97" s="7"/>
       <c r="BO97" s="7"/>
-    </row>
-    <row r="98" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP97" s="7"/>
+      <c r="BQ97" s="7"/>
+      <c r="BR97" s="7"/>
+      <c r="BS97" s="7"/>
+    </row>
+    <row r="98" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -7619,8 +8209,12 @@
       <c r="BM98" s="7"/>
       <c r="BN98" s="7"/>
       <c r="BO98" s="7"/>
-    </row>
-    <row r="99" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP98" s="7"/>
+      <c r="BQ98" s="7"/>
+      <c r="BR98" s="7"/>
+      <c r="BS98" s="7"/>
+    </row>
+    <row r="99" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -7686,8 +8280,12 @@
       <c r="BM99" s="7"/>
       <c r="BN99" s="7"/>
       <c r="BO99" s="7"/>
-    </row>
-    <row r="100" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP99" s="7"/>
+      <c r="BQ99" s="7"/>
+      <c r="BR99" s="7"/>
+      <c r="BS99" s="7"/>
+    </row>
+    <row r="100" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -7753,8 +8351,12 @@
       <c r="BM100" s="7"/>
       <c r="BN100" s="7"/>
       <c r="BO100" s="7"/>
-    </row>
-    <row r="101" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP100" s="7"/>
+      <c r="BQ100" s="7"/>
+      <c r="BR100" s="7"/>
+      <c r="BS100" s="7"/>
+    </row>
+    <row r="101" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -7820,8 +8422,12 @@
       <c r="BM101" s="7"/>
       <c r="BN101" s="7"/>
       <c r="BO101" s="7"/>
-    </row>
-    <row r="102" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP101" s="7"/>
+      <c r="BQ101" s="7"/>
+      <c r="BR101" s="7"/>
+      <c r="BS101" s="7"/>
+    </row>
+    <row r="102" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -7887,8 +8493,12 @@
       <c r="BM102" s="7"/>
       <c r="BN102" s="7"/>
       <c r="BO102" s="7"/>
-    </row>
-    <row r="103" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP102" s="7"/>
+      <c r="BQ102" s="7"/>
+      <c r="BR102" s="7"/>
+      <c r="BS102" s="7"/>
+    </row>
+    <row r="103" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -7954,8 +8564,12 @@
       <c r="BM103" s="7"/>
       <c r="BN103" s="7"/>
       <c r="BO103" s="7"/>
-    </row>
-    <row r="104" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP103" s="7"/>
+      <c r="BQ103" s="7"/>
+      <c r="BR103" s="7"/>
+      <c r="BS103" s="7"/>
+    </row>
+    <row r="104" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -8021,8 +8635,12 @@
       <c r="BM104" s="7"/>
       <c r="BN104" s="7"/>
       <c r="BO104" s="7"/>
-    </row>
-    <row r="105" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP104" s="7"/>
+      <c r="BQ104" s="7"/>
+      <c r="BR104" s="7"/>
+      <c r="BS104" s="7"/>
+    </row>
+    <row r="105" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -8088,8 +8706,12 @@
       <c r="BM105" s="7"/>
       <c r="BN105" s="7"/>
       <c r="BO105" s="7"/>
-    </row>
-    <row r="106" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP105" s="7"/>
+      <c r="BQ105" s="7"/>
+      <c r="BR105" s="7"/>
+      <c r="BS105" s="7"/>
+    </row>
+    <row r="106" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -8155,8 +8777,12 @@
       <c r="BM106" s="7"/>
       <c r="BN106" s="7"/>
       <c r="BO106" s="7"/>
-    </row>
-    <row r="107" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP106" s="7"/>
+      <c r="BQ106" s="7"/>
+      <c r="BR106" s="7"/>
+      <c r="BS106" s="7"/>
+    </row>
+    <row r="107" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -8222,8 +8848,12 @@
       <c r="BM107" s="7"/>
       <c r="BN107" s="7"/>
       <c r="BO107" s="7"/>
-    </row>
-    <row r="108" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP107" s="7"/>
+      <c r="BQ107" s="7"/>
+      <c r="BR107" s="7"/>
+      <c r="BS107" s="7"/>
+    </row>
+    <row r="108" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -8289,8 +8919,12 @@
       <c r="BM108" s="7"/>
       <c r="BN108" s="7"/>
       <c r="BO108" s="7"/>
-    </row>
-    <row r="109" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP108" s="7"/>
+      <c r="BQ108" s="7"/>
+      <c r="BR108" s="7"/>
+      <c r="BS108" s="7"/>
+    </row>
+    <row r="109" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -8356,8 +8990,12 @@
       <c r="BM109" s="7"/>
       <c r="BN109" s="7"/>
       <c r="BO109" s="7"/>
-    </row>
-    <row r="110" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP109" s="7"/>
+      <c r="BQ109" s="7"/>
+      <c r="BR109" s="7"/>
+      <c r="BS109" s="7"/>
+    </row>
+    <row r="110" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -8423,8 +9061,12 @@
       <c r="BM110" s="7"/>
       <c r="BN110" s="7"/>
       <c r="BO110" s="7"/>
-    </row>
-    <row r="111" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP110" s="7"/>
+      <c r="BQ110" s="7"/>
+      <c r="BR110" s="7"/>
+      <c r="BS110" s="7"/>
+    </row>
+    <row r="111" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -8490,8 +9132,12 @@
       <c r="BM111" s="7"/>
       <c r="BN111" s="7"/>
       <c r="BO111" s="7"/>
-    </row>
-    <row r="112" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP111" s="7"/>
+      <c r="BQ111" s="7"/>
+      <c r="BR111" s="7"/>
+      <c r="BS111" s="7"/>
+    </row>
+    <row r="112" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -8557,8 +9203,12 @@
       <c r="BM112" s="7"/>
       <c r="BN112" s="7"/>
       <c r="BO112" s="7"/>
-    </row>
-    <row r="113" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP112" s="7"/>
+      <c r="BQ112" s="7"/>
+      <c r="BR112" s="7"/>
+      <c r="BS112" s="7"/>
+    </row>
+    <row r="113" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -8624,8 +9274,12 @@
       <c r="BM113" s="7"/>
       <c r="BN113" s="7"/>
       <c r="BO113" s="7"/>
-    </row>
-    <row r="114" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP113" s="7"/>
+      <c r="BQ113" s="7"/>
+      <c r="BR113" s="7"/>
+      <c r="BS113" s="7"/>
+    </row>
+    <row r="114" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -8691,8 +9345,12 @@
       <c r="BM114" s="7"/>
       <c r="BN114" s="7"/>
       <c r="BO114" s="7"/>
-    </row>
-    <row r="115" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP114" s="7"/>
+      <c r="BQ114" s="7"/>
+      <c r="BR114" s="7"/>
+      <c r="BS114" s="7"/>
+    </row>
+    <row r="115" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -8758,8 +9416,12 @@
       <c r="BM115" s="7"/>
       <c r="BN115" s="7"/>
       <c r="BO115" s="7"/>
-    </row>
-    <row r="116" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP115" s="7"/>
+      <c r="BQ115" s="7"/>
+      <c r="BR115" s="7"/>
+      <c r="BS115" s="7"/>
+    </row>
+    <row r="116" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -8825,8 +9487,12 @@
       <c r="BM116" s="7"/>
       <c r="BN116" s="7"/>
       <c r="BO116" s="7"/>
-    </row>
-    <row r="117" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP116" s="7"/>
+      <c r="BQ116" s="7"/>
+      <c r="BR116" s="7"/>
+      <c r="BS116" s="7"/>
+    </row>
+    <row r="117" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -8892,8 +9558,12 @@
       <c r="BM117" s="7"/>
       <c r="BN117" s="7"/>
       <c r="BO117" s="7"/>
-    </row>
-    <row r="118" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP117" s="7"/>
+      <c r="BQ117" s="7"/>
+      <c r="BR117" s="7"/>
+      <c r="BS117" s="7"/>
+    </row>
+    <row r="118" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -8959,8 +9629,12 @@
       <c r="BM118" s="7"/>
       <c r="BN118" s="7"/>
       <c r="BO118" s="7"/>
-    </row>
-    <row r="119" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP118" s="7"/>
+      <c r="BQ118" s="7"/>
+      <c r="BR118" s="7"/>
+      <c r="BS118" s="7"/>
+    </row>
+    <row r="119" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -9026,8 +9700,12 @@
       <c r="BM119" s="7"/>
       <c r="BN119" s="7"/>
       <c r="BO119" s="7"/>
-    </row>
-    <row r="120" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP119" s="7"/>
+      <c r="BQ119" s="7"/>
+      <c r="BR119" s="7"/>
+      <c r="BS119" s="7"/>
+    </row>
+    <row r="120" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -9093,8 +9771,12 @@
       <c r="BM120" s="7"/>
       <c r="BN120" s="7"/>
       <c r="BO120" s="7"/>
-    </row>
-    <row r="121" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP120" s="7"/>
+      <c r="BQ120" s="7"/>
+      <c r="BR120" s="7"/>
+      <c r="BS120" s="7"/>
+    </row>
+    <row r="121" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -9160,8 +9842,12 @@
       <c r="BM121" s="7"/>
       <c r="BN121" s="7"/>
       <c r="BO121" s="7"/>
-    </row>
-    <row r="122" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP121" s="7"/>
+      <c r="BQ121" s="7"/>
+      <c r="BR121" s="7"/>
+      <c r="BS121" s="7"/>
+    </row>
+    <row r="122" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -9227,8 +9913,12 @@
       <c r="BM122" s="7"/>
       <c r="BN122" s="7"/>
       <c r="BO122" s="7"/>
-    </row>
-    <row r="123" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP122" s="7"/>
+      <c r="BQ122" s="7"/>
+      <c r="BR122" s="7"/>
+      <c r="BS122" s="7"/>
+    </row>
+    <row r="123" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -9294,8 +9984,12 @@
       <c r="BM123" s="7"/>
       <c r="BN123" s="7"/>
       <c r="BO123" s="7"/>
-    </row>
-    <row r="124" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP123" s="7"/>
+      <c r="BQ123" s="7"/>
+      <c r="BR123" s="7"/>
+      <c r="BS123" s="7"/>
+    </row>
+    <row r="124" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -9361,8 +10055,12 @@
       <c r="BM124" s="7"/>
       <c r="BN124" s="7"/>
       <c r="BO124" s="7"/>
-    </row>
-    <row r="125" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP124" s="7"/>
+      <c r="BQ124" s="7"/>
+      <c r="BR124" s="7"/>
+      <c r="BS124" s="7"/>
+    </row>
+    <row r="125" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -9428,8 +10126,12 @@
       <c r="BM125" s="7"/>
       <c r="BN125" s="7"/>
       <c r="BO125" s="7"/>
-    </row>
-    <row r="126" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP125" s="7"/>
+      <c r="BQ125" s="7"/>
+      <c r="BR125" s="7"/>
+      <c r="BS125" s="7"/>
+    </row>
+    <row r="126" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -9495,8 +10197,12 @@
       <c r="BM126" s="7"/>
       <c r="BN126" s="7"/>
       <c r="BO126" s="7"/>
-    </row>
-    <row r="127" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP126" s="7"/>
+      <c r="BQ126" s="7"/>
+      <c r="BR126" s="7"/>
+      <c r="BS126" s="7"/>
+    </row>
+    <row r="127" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -9562,8 +10268,12 @@
       <c r="BM127" s="7"/>
       <c r="BN127" s="7"/>
       <c r="BO127" s="7"/>
-    </row>
-    <row r="128" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP127" s="7"/>
+      <c r="BQ127" s="7"/>
+      <c r="BR127" s="7"/>
+      <c r="BS127" s="7"/>
+    </row>
+    <row r="128" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -9629,8 +10339,12 @@
       <c r="BM128" s="7"/>
       <c r="BN128" s="7"/>
       <c r="BO128" s="7"/>
-    </row>
-    <row r="129" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP128" s="7"/>
+      <c r="BQ128" s="7"/>
+      <c r="BR128" s="7"/>
+      <c r="BS128" s="7"/>
+    </row>
+    <row r="129" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -9696,8 +10410,12 @@
       <c r="BM129" s="7"/>
       <c r="BN129" s="7"/>
       <c r="BO129" s="7"/>
-    </row>
-    <row r="130" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP129" s="7"/>
+      <c r="BQ129" s="7"/>
+      <c r="BR129" s="7"/>
+      <c r="BS129" s="7"/>
+    </row>
+    <row r="130" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -9763,8 +10481,12 @@
       <c r="BM130" s="7"/>
       <c r="BN130" s="7"/>
       <c r="BO130" s="7"/>
-    </row>
-    <row r="131" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP130" s="7"/>
+      <c r="BQ130" s="7"/>
+      <c r="BR130" s="7"/>
+      <c r="BS130" s="7"/>
+    </row>
+    <row r="131" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -9830,8 +10552,12 @@
       <c r="BM131" s="7"/>
       <c r="BN131" s="7"/>
       <c r="BO131" s="7"/>
-    </row>
-    <row r="132" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP131" s="7"/>
+      <c r="BQ131" s="7"/>
+      <c r="BR131" s="7"/>
+      <c r="BS131" s="7"/>
+    </row>
+    <row r="132" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -9897,8 +10623,12 @@
       <c r="BM132" s="7"/>
       <c r="BN132" s="7"/>
       <c r="BO132" s="7"/>
-    </row>
-    <row r="133" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP132" s="7"/>
+      <c r="BQ132" s="7"/>
+      <c r="BR132" s="7"/>
+      <c r="BS132" s="7"/>
+    </row>
+    <row r="133" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -9964,8 +10694,12 @@
       <c r="BM133" s="7"/>
       <c r="BN133" s="7"/>
       <c r="BO133" s="7"/>
-    </row>
-    <row r="134" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP133" s="7"/>
+      <c r="BQ133" s="7"/>
+      <c r="BR133" s="7"/>
+      <c r="BS133" s="7"/>
+    </row>
+    <row r="134" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -10031,8 +10765,12 @@
       <c r="BM134" s="7"/>
       <c r="BN134" s="7"/>
       <c r="BO134" s="7"/>
-    </row>
-    <row r="135" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP134" s="7"/>
+      <c r="BQ134" s="7"/>
+      <c r="BR134" s="7"/>
+      <c r="BS134" s="7"/>
+    </row>
+    <row r="135" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -10098,8 +10836,12 @@
       <c r="BM135" s="7"/>
       <c r="BN135" s="7"/>
       <c r="BO135" s="7"/>
-    </row>
-    <row r="136" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP135" s="7"/>
+      <c r="BQ135" s="7"/>
+      <c r="BR135" s="7"/>
+      <c r="BS135" s="7"/>
+    </row>
+    <row r="136" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -10165,8 +10907,12 @@
       <c r="BM136" s="7"/>
       <c r="BN136" s="7"/>
       <c r="BO136" s="7"/>
-    </row>
-    <row r="137" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP136" s="7"/>
+      <c r="BQ136" s="7"/>
+      <c r="BR136" s="7"/>
+      <c r="BS136" s="7"/>
+    </row>
+    <row r="137" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -10232,8 +10978,12 @@
       <c r="BM137" s="7"/>
       <c r="BN137" s="7"/>
       <c r="BO137" s="7"/>
-    </row>
-    <row r="138" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP137" s="7"/>
+      <c r="BQ137" s="7"/>
+      <c r="BR137" s="7"/>
+      <c r="BS137" s="7"/>
+    </row>
+    <row r="138" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -10299,8 +11049,12 @@
       <c r="BM138" s="7"/>
       <c r="BN138" s="7"/>
       <c r="BO138" s="7"/>
-    </row>
-    <row r="139" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP138" s="7"/>
+      <c r="BQ138" s="7"/>
+      <c r="BR138" s="7"/>
+      <c r="BS138" s="7"/>
+    </row>
+    <row r="139" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -10366,8 +11120,12 @@
       <c r="BM139" s="7"/>
       <c r="BN139" s="7"/>
       <c r="BO139" s="7"/>
-    </row>
-    <row r="140" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP139" s="7"/>
+      <c r="BQ139" s="7"/>
+      <c r="BR139" s="7"/>
+      <c r="BS139" s="7"/>
+    </row>
+    <row r="140" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -10433,8 +11191,12 @@
       <c r="BM140" s="7"/>
       <c r="BN140" s="7"/>
       <c r="BO140" s="7"/>
-    </row>
-    <row r="141" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP140" s="7"/>
+      <c r="BQ140" s="7"/>
+      <c r="BR140" s="7"/>
+      <c r="BS140" s="7"/>
+    </row>
+    <row r="141" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -10500,8 +11262,12 @@
       <c r="BM141" s="7"/>
       <c r="BN141" s="7"/>
       <c r="BO141" s="7"/>
-    </row>
-    <row r="142" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP141" s="7"/>
+      <c r="BQ141" s="7"/>
+      <c r="BR141" s="7"/>
+      <c r="BS141" s="7"/>
+    </row>
+    <row r="142" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -10567,8 +11333,12 @@
       <c r="BM142" s="7"/>
       <c r="BN142" s="7"/>
       <c r="BO142" s="7"/>
-    </row>
-    <row r="143" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP142" s="7"/>
+      <c r="BQ142" s="7"/>
+      <c r="BR142" s="7"/>
+      <c r="BS142" s="7"/>
+    </row>
+    <row r="143" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -10634,8 +11404,12 @@
       <c r="BM143" s="7"/>
       <c r="BN143" s="7"/>
       <c r="BO143" s="7"/>
-    </row>
-    <row r="144" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP143" s="7"/>
+      <c r="BQ143" s="7"/>
+      <c r="BR143" s="7"/>
+      <c r="BS143" s="7"/>
+    </row>
+    <row r="144" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -10701,8 +11475,12 @@
       <c r="BM144" s="7"/>
       <c r="BN144" s="7"/>
       <c r="BO144" s="7"/>
-    </row>
-    <row r="145" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP144" s="7"/>
+      <c r="BQ144" s="7"/>
+      <c r="BR144" s="7"/>
+      <c r="BS144" s="7"/>
+    </row>
+    <row r="145" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -10768,8 +11546,12 @@
       <c r="BM145" s="7"/>
       <c r="BN145" s="7"/>
       <c r="BO145" s="7"/>
-    </row>
-    <row r="146" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP145" s="7"/>
+      <c r="BQ145" s="7"/>
+      <c r="BR145" s="7"/>
+      <c r="BS145" s="7"/>
+    </row>
+    <row r="146" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -10835,8 +11617,12 @@
       <c r="BM146" s="7"/>
       <c r="BN146" s="7"/>
       <c r="BO146" s="7"/>
-    </row>
-    <row r="147" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP146" s="7"/>
+      <c r="BQ146" s="7"/>
+      <c r="BR146" s="7"/>
+      <c r="BS146" s="7"/>
+    </row>
+    <row r="147" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -10902,8 +11688,12 @@
       <c r="BM147" s="7"/>
       <c r="BN147" s="7"/>
       <c r="BO147" s="7"/>
-    </row>
-    <row r="148" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP147" s="7"/>
+      <c r="BQ147" s="7"/>
+      <c r="BR147" s="7"/>
+      <c r="BS147" s="7"/>
+    </row>
+    <row r="148" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -10969,8 +11759,12 @@
       <c r="BM148" s="7"/>
       <c r="BN148" s="7"/>
       <c r="BO148" s="7"/>
-    </row>
-    <row r="149" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP148" s="7"/>
+      <c r="BQ148" s="7"/>
+      <c r="BR148" s="7"/>
+      <c r="BS148" s="7"/>
+    </row>
+    <row r="149" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -11036,8 +11830,12 @@
       <c r="BM149" s="7"/>
       <c r="BN149" s="7"/>
       <c r="BO149" s="7"/>
-    </row>
-    <row r="150" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP149" s="7"/>
+      <c r="BQ149" s="7"/>
+      <c r="BR149" s="7"/>
+      <c r="BS149" s="7"/>
+    </row>
+    <row r="150" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -11103,8 +11901,12 @@
       <c r="BM150" s="7"/>
       <c r="BN150" s="7"/>
       <c r="BO150" s="7"/>
-    </row>
-    <row r="151" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP150" s="7"/>
+      <c r="BQ150" s="7"/>
+      <c r="BR150" s="7"/>
+      <c r="BS150" s="7"/>
+    </row>
+    <row r="151" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -11170,8 +11972,12 @@
       <c r="BM151" s="7"/>
       <c r="BN151" s="7"/>
       <c r="BO151" s="7"/>
-    </row>
-    <row r="152" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP151" s="7"/>
+      <c r="BQ151" s="7"/>
+      <c r="BR151" s="7"/>
+      <c r="BS151" s="7"/>
+    </row>
+    <row r="152" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -11237,8 +12043,12 @@
       <c r="BM152" s="7"/>
       <c r="BN152" s="7"/>
       <c r="BO152" s="7"/>
-    </row>
-    <row r="153" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP152" s="7"/>
+      <c r="BQ152" s="7"/>
+      <c r="BR152" s="7"/>
+      <c r="BS152" s="7"/>
+    </row>
+    <row r="153" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -11304,8 +12114,12 @@
       <c r="BM153" s="7"/>
       <c r="BN153" s="7"/>
       <c r="BO153" s="7"/>
-    </row>
-    <row r="154" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP153" s="7"/>
+      <c r="BQ153" s="7"/>
+      <c r="BR153" s="7"/>
+      <c r="BS153" s="7"/>
+    </row>
+    <row r="154" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -11371,8 +12185,12 @@
       <c r="BM154" s="7"/>
       <c r="BN154" s="7"/>
       <c r="BO154" s="7"/>
-    </row>
-    <row r="155" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP154" s="7"/>
+      <c r="BQ154" s="7"/>
+      <c r="BR154" s="7"/>
+      <c r="BS154" s="7"/>
+    </row>
+    <row r="155" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -11438,8 +12256,12 @@
       <c r="BM155" s="7"/>
       <c r="BN155" s="7"/>
       <c r="BO155" s="7"/>
-    </row>
-    <row r="156" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP155" s="7"/>
+      <c r="BQ155" s="7"/>
+      <c r="BR155" s="7"/>
+      <c r="BS155" s="7"/>
+    </row>
+    <row r="156" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -11505,8 +12327,12 @@
       <c r="BM156" s="7"/>
       <c r="BN156" s="7"/>
       <c r="BO156" s="7"/>
-    </row>
-    <row r="157" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP156" s="7"/>
+      <c r="BQ156" s="7"/>
+      <c r="BR156" s="7"/>
+      <c r="BS156" s="7"/>
+    </row>
+    <row r="157" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -11572,8 +12398,12 @@
       <c r="BM157" s="7"/>
       <c r="BN157" s="7"/>
       <c r="BO157" s="7"/>
-    </row>
-    <row r="158" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP157" s="7"/>
+      <c r="BQ157" s="7"/>
+      <c r="BR157" s="7"/>
+      <c r="BS157" s="7"/>
+    </row>
+    <row r="158" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -11639,8 +12469,12 @@
       <c r="BM158" s="7"/>
       <c r="BN158" s="7"/>
       <c r="BO158" s="7"/>
-    </row>
-    <row r="159" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP158" s="7"/>
+      <c r="BQ158" s="7"/>
+      <c r="BR158" s="7"/>
+      <c r="BS158" s="7"/>
+    </row>
+    <row r="159" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -11706,8 +12540,12 @@
       <c r="BM159" s="7"/>
       <c r="BN159" s="7"/>
       <c r="BO159" s="7"/>
-    </row>
-    <row r="160" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP159" s="7"/>
+      <c r="BQ159" s="7"/>
+      <c r="BR159" s="7"/>
+      <c r="BS159" s="7"/>
+    </row>
+    <row r="160" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -11773,8 +12611,12 @@
       <c r="BM160" s="7"/>
       <c r="BN160" s="7"/>
       <c r="BO160" s="7"/>
-    </row>
-    <row r="161" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP160" s="7"/>
+      <c r="BQ160" s="7"/>
+      <c r="BR160" s="7"/>
+      <c r="BS160" s="7"/>
+    </row>
+    <row r="161" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -11840,8 +12682,12 @@
       <c r="BM161" s="7"/>
       <c r="BN161" s="7"/>
       <c r="BO161" s="7"/>
-    </row>
-    <row r="162" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP161" s="7"/>
+      <c r="BQ161" s="7"/>
+      <c r="BR161" s="7"/>
+      <c r="BS161" s="7"/>
+    </row>
+    <row r="162" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -11907,8 +12753,12 @@
       <c r="BM162" s="7"/>
       <c r="BN162" s="7"/>
       <c r="BO162" s="7"/>
-    </row>
-    <row r="163" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP162" s="7"/>
+      <c r="BQ162" s="7"/>
+      <c r="BR162" s="7"/>
+      <c r="BS162" s="7"/>
+    </row>
+    <row r="163" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -11974,8 +12824,12 @@
       <c r="BM163" s="7"/>
       <c r="BN163" s="7"/>
       <c r="BO163" s="7"/>
-    </row>
-    <row r="164" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP163" s="7"/>
+      <c r="BQ163" s="7"/>
+      <c r="BR163" s="7"/>
+      <c r="BS163" s="7"/>
+    </row>
+    <row r="164" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -12041,8 +12895,12 @@
       <c r="BM164" s="7"/>
       <c r="BN164" s="7"/>
       <c r="BO164" s="7"/>
-    </row>
-    <row r="165" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP164" s="7"/>
+      <c r="BQ164" s="7"/>
+      <c r="BR164" s="7"/>
+      <c r="BS164" s="7"/>
+    </row>
+    <row r="165" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -12108,8 +12966,12 @@
       <c r="BM165" s="7"/>
       <c r="BN165" s="7"/>
       <c r="BO165" s="7"/>
-    </row>
-    <row r="166" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP165" s="7"/>
+      <c r="BQ165" s="7"/>
+      <c r="BR165" s="7"/>
+      <c r="BS165" s="7"/>
+    </row>
+    <row r="166" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -12175,8 +13037,12 @@
       <c r="BM166" s="7"/>
       <c r="BN166" s="7"/>
       <c r="BO166" s="7"/>
-    </row>
-    <row r="167" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP166" s="7"/>
+      <c r="BQ166" s="7"/>
+      <c r="BR166" s="7"/>
+      <c r="BS166" s="7"/>
+    </row>
+    <row r="167" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -12242,8 +13108,12 @@
       <c r="BM167" s="7"/>
       <c r="BN167" s="7"/>
       <c r="BO167" s="7"/>
-    </row>
-    <row r="168" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP167" s="7"/>
+      <c r="BQ167" s="7"/>
+      <c r="BR167" s="7"/>
+      <c r="BS167" s="7"/>
+    </row>
+    <row r="168" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -12309,8 +13179,12 @@
       <c r="BM168" s="7"/>
       <c r="BN168" s="7"/>
       <c r="BO168" s="7"/>
-    </row>
-    <row r="169" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP168" s="7"/>
+      <c r="BQ168" s="7"/>
+      <c r="BR168" s="7"/>
+      <c r="BS168" s="7"/>
+    </row>
+    <row r="169" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -12376,8 +13250,12 @@
       <c r="BM169" s="7"/>
       <c r="BN169" s="7"/>
       <c r="BO169" s="7"/>
-    </row>
-    <row r="170" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP169" s="7"/>
+      <c r="BQ169" s="7"/>
+      <c r="BR169" s="7"/>
+      <c r="BS169" s="7"/>
+    </row>
+    <row r="170" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -12443,8 +13321,12 @@
       <c r="BM170" s="7"/>
       <c r="BN170" s="7"/>
       <c r="BO170" s="7"/>
-    </row>
-    <row r="171" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP170" s="7"/>
+      <c r="BQ170" s="7"/>
+      <c r="BR170" s="7"/>
+      <c r="BS170" s="7"/>
+    </row>
+    <row r="171" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -12510,8 +13392,12 @@
       <c r="BM171" s="7"/>
       <c r="BN171" s="7"/>
       <c r="BO171" s="7"/>
-    </row>
-    <row r="172" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP171" s="7"/>
+      <c r="BQ171" s="7"/>
+      <c r="BR171" s="7"/>
+      <c r="BS171" s="7"/>
+    </row>
+    <row r="172" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -12577,8 +13463,12 @@
       <c r="BM172" s="7"/>
       <c r="BN172" s="7"/>
       <c r="BO172" s="7"/>
-    </row>
-    <row r="173" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP172" s="7"/>
+      <c r="BQ172" s="7"/>
+      <c r="BR172" s="7"/>
+      <c r="BS172" s="7"/>
+    </row>
+    <row r="173" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -12644,8 +13534,12 @@
       <c r="BM173" s="7"/>
       <c r="BN173" s="7"/>
       <c r="BO173" s="7"/>
-    </row>
-    <row r="174" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP173" s="7"/>
+      <c r="BQ173" s="7"/>
+      <c r="BR173" s="7"/>
+      <c r="BS173" s="7"/>
+    </row>
+    <row r="174" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -12711,8 +13605,12 @@
       <c r="BM174" s="7"/>
       <c r="BN174" s="7"/>
       <c r="BO174" s="7"/>
-    </row>
-    <row r="175" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP174" s="7"/>
+      <c r="BQ174" s="7"/>
+      <c r="BR174" s="7"/>
+      <c r="BS174" s="7"/>
+    </row>
+    <row r="175" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -12778,8 +13676,12 @@
       <c r="BM175" s="7"/>
       <c r="BN175" s="7"/>
       <c r="BO175" s="7"/>
-    </row>
-    <row r="176" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP175" s="7"/>
+      <c r="BQ175" s="7"/>
+      <c r="BR175" s="7"/>
+      <c r="BS175" s="7"/>
+    </row>
+    <row r="176" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -12845,8 +13747,12 @@
       <c r="BM176" s="7"/>
       <c r="BN176" s="7"/>
       <c r="BO176" s="7"/>
-    </row>
-    <row r="177" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP176" s="7"/>
+      <c r="BQ176" s="7"/>
+      <c r="BR176" s="7"/>
+      <c r="BS176" s="7"/>
+    </row>
+    <row r="177" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -12912,8 +13818,12 @@
       <c r="BM177" s="7"/>
       <c r="BN177" s="7"/>
       <c r="BO177" s="7"/>
-    </row>
-    <row r="178" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP177" s="7"/>
+      <c r="BQ177" s="7"/>
+      <c r="BR177" s="7"/>
+      <c r="BS177" s="7"/>
+    </row>
+    <row r="178" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -12979,8 +13889,12 @@
       <c r="BM178" s="7"/>
       <c r="BN178" s="7"/>
       <c r="BO178" s="7"/>
-    </row>
-    <row r="179" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP178" s="7"/>
+      <c r="BQ178" s="7"/>
+      <c r="BR178" s="7"/>
+      <c r="BS178" s="7"/>
+    </row>
+    <row r="179" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -13046,8 +13960,12 @@
       <c r="BM179" s="7"/>
       <c r="BN179" s="7"/>
       <c r="BO179" s="7"/>
-    </row>
-    <row r="180" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP179" s="7"/>
+      <c r="BQ179" s="7"/>
+      <c r="BR179" s="7"/>
+      <c r="BS179" s="7"/>
+    </row>
+    <row r="180" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -13113,8 +14031,12 @@
       <c r="BM180" s="7"/>
       <c r="BN180" s="7"/>
       <c r="BO180" s="7"/>
-    </row>
-    <row r="181" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP180" s="7"/>
+      <c r="BQ180" s="7"/>
+      <c r="BR180" s="7"/>
+      <c r="BS180" s="7"/>
+    </row>
+    <row r="181" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -13180,8 +14102,12 @@
       <c r="BM181" s="7"/>
       <c r="BN181" s="7"/>
       <c r="BO181" s="7"/>
-    </row>
-    <row r="182" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP181" s="7"/>
+      <c r="BQ181" s="7"/>
+      <c r="BR181" s="7"/>
+      <c r="BS181" s="7"/>
+    </row>
+    <row r="182" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -13247,8 +14173,12 @@
       <c r="BM182" s="7"/>
       <c r="BN182" s="7"/>
       <c r="BO182" s="7"/>
-    </row>
-    <row r="183" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP182" s="7"/>
+      <c r="BQ182" s="7"/>
+      <c r="BR182" s="7"/>
+      <c r="BS182" s="7"/>
+    </row>
+    <row r="183" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -13314,8 +14244,12 @@
       <c r="BM183" s="7"/>
       <c r="BN183" s="7"/>
       <c r="BO183" s="7"/>
-    </row>
-    <row r="184" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP183" s="7"/>
+      <c r="BQ183" s="7"/>
+      <c r="BR183" s="7"/>
+      <c r="BS183" s="7"/>
+    </row>
+    <row r="184" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -13381,8 +14315,12 @@
       <c r="BM184" s="7"/>
       <c r="BN184" s="7"/>
       <c r="BO184" s="7"/>
-    </row>
-    <row r="185" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP184" s="7"/>
+      <c r="BQ184" s="7"/>
+      <c r="BR184" s="7"/>
+      <c r="BS184" s="7"/>
+    </row>
+    <row r="185" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -13448,8 +14386,12 @@
       <c r="BM185" s="7"/>
       <c r="BN185" s="7"/>
       <c r="BO185" s="7"/>
-    </row>
-    <row r="186" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP185" s="7"/>
+      <c r="BQ185" s="7"/>
+      <c r="BR185" s="7"/>
+      <c r="BS185" s="7"/>
+    </row>
+    <row r="186" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -13515,8 +14457,12 @@
       <c r="BM186" s="7"/>
       <c r="BN186" s="7"/>
       <c r="BO186" s="7"/>
-    </row>
-    <row r="187" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP186" s="7"/>
+      <c r="BQ186" s="7"/>
+      <c r="BR186" s="7"/>
+      <c r="BS186" s="7"/>
+    </row>
+    <row r="187" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -13582,8 +14528,12 @@
       <c r="BM187" s="7"/>
       <c r="BN187" s="7"/>
       <c r="BO187" s="7"/>
-    </row>
-    <row r="188" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP187" s="7"/>
+      <c r="BQ187" s="7"/>
+      <c r="BR187" s="7"/>
+      <c r="BS187" s="7"/>
+    </row>
+    <row r="188" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -13649,8 +14599,12 @@
       <c r="BM188" s="7"/>
       <c r="BN188" s="7"/>
       <c r="BO188" s="7"/>
-    </row>
-    <row r="189" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP188" s="7"/>
+      <c r="BQ188" s="7"/>
+      <c r="BR188" s="7"/>
+      <c r="BS188" s="7"/>
+    </row>
+    <row r="189" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -13716,8 +14670,12 @@
       <c r="BM189" s="7"/>
       <c r="BN189" s="7"/>
       <c r="BO189" s="7"/>
-    </row>
-    <row r="190" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP189" s="7"/>
+      <c r="BQ189" s="7"/>
+      <c r="BR189" s="7"/>
+      <c r="BS189" s="7"/>
+    </row>
+    <row r="190" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -13783,8 +14741,12 @@
       <c r="BM190" s="7"/>
       <c r="BN190" s="7"/>
       <c r="BO190" s="7"/>
-    </row>
-    <row r="191" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP190" s="7"/>
+      <c r="BQ190" s="7"/>
+      <c r="BR190" s="7"/>
+      <c r="BS190" s="7"/>
+    </row>
+    <row r="191" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -13850,8 +14812,12 @@
       <c r="BM191" s="7"/>
       <c r="BN191" s="7"/>
       <c r="BO191" s="7"/>
-    </row>
-    <row r="192" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP191" s="7"/>
+      <c r="BQ191" s="7"/>
+      <c r="BR191" s="7"/>
+      <c r="BS191" s="7"/>
+    </row>
+    <row r="192" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -13917,8 +14883,12 @@
       <c r="BM192" s="7"/>
       <c r="BN192" s="7"/>
       <c r="BO192" s="7"/>
-    </row>
-    <row r="193" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP192" s="7"/>
+      <c r="BQ192" s="7"/>
+      <c r="BR192" s="7"/>
+      <c r="BS192" s="7"/>
+    </row>
+    <row r="193" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -13984,8 +14954,12 @@
       <c r="BM193" s="7"/>
       <c r="BN193" s="7"/>
       <c r="BO193" s="7"/>
-    </row>
-    <row r="194" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP193" s="7"/>
+      <c r="BQ193" s="7"/>
+      <c r="BR193" s="7"/>
+      <c r="BS193" s="7"/>
+    </row>
+    <row r="194" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -14051,8 +15025,12 @@
       <c r="BM194" s="7"/>
       <c r="BN194" s="7"/>
       <c r="BO194" s="7"/>
-    </row>
-    <row r="195" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP194" s="7"/>
+      <c r="BQ194" s="7"/>
+      <c r="BR194" s="7"/>
+      <c r="BS194" s="7"/>
+    </row>
+    <row r="195" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -14118,8 +15096,12 @@
       <c r="BM195" s="7"/>
       <c r="BN195" s="7"/>
       <c r="BO195" s="7"/>
-    </row>
-    <row r="196" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP195" s="7"/>
+      <c r="BQ195" s="7"/>
+      <c r="BR195" s="7"/>
+      <c r="BS195" s="7"/>
+    </row>
+    <row r="196" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -14185,8 +15167,12 @@
       <c r="BM196" s="7"/>
       <c r="BN196" s="7"/>
       <c r="BO196" s="7"/>
-    </row>
-    <row r="197" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP196" s="7"/>
+      <c r="BQ196" s="7"/>
+      <c r="BR196" s="7"/>
+      <c r="BS196" s="7"/>
+    </row>
+    <row r="197" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -14252,8 +15238,12 @@
       <c r="BM197" s="7"/>
       <c r="BN197" s="7"/>
       <c r="BO197" s="7"/>
-    </row>
-    <row r="198" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP197" s="7"/>
+      <c r="BQ197" s="7"/>
+      <c r="BR197" s="7"/>
+      <c r="BS197" s="7"/>
+    </row>
+    <row r="198" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -14319,8 +15309,12 @@
       <c r="BM198" s="7"/>
       <c r="BN198" s="7"/>
       <c r="BO198" s="7"/>
-    </row>
-    <row r="199" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP198" s="7"/>
+      <c r="BQ198" s="7"/>
+      <c r="BR198" s="7"/>
+      <c r="BS198" s="7"/>
+    </row>
+    <row r="199" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -14386,8 +15380,12 @@
       <c r="BM199" s="7"/>
       <c r="BN199" s="7"/>
       <c r="BO199" s="7"/>
-    </row>
-    <row r="200" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP199" s="7"/>
+      <c r="BQ199" s="7"/>
+      <c r="BR199" s="7"/>
+      <c r="BS199" s="7"/>
+    </row>
+    <row r="200" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -14453,8 +15451,12 @@
       <c r="BM200" s="7"/>
       <c r="BN200" s="7"/>
       <c r="BO200" s="7"/>
-    </row>
-    <row r="201" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP200" s="7"/>
+      <c r="BQ200" s="7"/>
+      <c r="BR200" s="7"/>
+      <c r="BS200" s="7"/>
+    </row>
+    <row r="201" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -14520,8 +15522,12 @@
       <c r="BM201" s="7"/>
       <c r="BN201" s="7"/>
       <c r="BO201" s="7"/>
-    </row>
-    <row r="202" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP201" s="7"/>
+      <c r="BQ201" s="7"/>
+      <c r="BR201" s="7"/>
+      <c r="BS201" s="7"/>
+    </row>
+    <row r="202" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -14587,8 +15593,12 @@
       <c r="BM202" s="7"/>
       <c r="BN202" s="7"/>
       <c r="BO202" s="7"/>
-    </row>
-    <row r="203" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP202" s="7"/>
+      <c r="BQ202" s="7"/>
+      <c r="BR202" s="7"/>
+      <c r="BS202" s="7"/>
+    </row>
+    <row r="203" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -14654,8 +15664,12 @@
       <c r="BM203" s="7"/>
       <c r="BN203" s="7"/>
       <c r="BO203" s="7"/>
-    </row>
-    <row r="204" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP203" s="7"/>
+      <c r="BQ203" s="7"/>
+      <c r="BR203" s="7"/>
+      <c r="BS203" s="7"/>
+    </row>
+    <row r="204" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -14721,8 +15735,12 @@
       <c r="BM204" s="7"/>
       <c r="BN204" s="7"/>
       <c r="BO204" s="7"/>
-    </row>
-    <row r="205" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP204" s="7"/>
+      <c r="BQ204" s="7"/>
+      <c r="BR204" s="7"/>
+      <c r="BS204" s="7"/>
+    </row>
+    <row r="205" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -14788,8 +15806,12 @@
       <c r="BM205" s="7"/>
       <c r="BN205" s="7"/>
       <c r="BO205" s="7"/>
-    </row>
-    <row r="206" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP205" s="7"/>
+      <c r="BQ205" s="7"/>
+      <c r="BR205" s="7"/>
+      <c r="BS205" s="7"/>
+    </row>
+    <row r="206" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -14855,8 +15877,12 @@
       <c r="BM206" s="7"/>
       <c r="BN206" s="7"/>
       <c r="BO206" s="7"/>
-    </row>
-    <row r="207" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP206" s="7"/>
+      <c r="BQ206" s="7"/>
+      <c r="BR206" s="7"/>
+      <c r="BS206" s="7"/>
+    </row>
+    <row r="207" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -14922,8 +15948,12 @@
       <c r="BM207" s="7"/>
       <c r="BN207" s="7"/>
       <c r="BO207" s="7"/>
-    </row>
-    <row r="208" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP207" s="7"/>
+      <c r="BQ207" s="7"/>
+      <c r="BR207" s="7"/>
+      <c r="BS207" s="7"/>
+    </row>
+    <row r="208" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -14989,8 +16019,12 @@
       <c r="BM208" s="7"/>
       <c r="BN208" s="7"/>
       <c r="BO208" s="7"/>
-    </row>
-    <row r="209" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP208" s="7"/>
+      <c r="BQ208" s="7"/>
+      <c r="BR208" s="7"/>
+      <c r="BS208" s="7"/>
+    </row>
+    <row r="209" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -15056,8 +16090,12 @@
       <c r="BM209" s="7"/>
       <c r="BN209" s="7"/>
       <c r="BO209" s="7"/>
-    </row>
-    <row r="210" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP209" s="7"/>
+      <c r="BQ209" s="7"/>
+      <c r="BR209" s="7"/>
+      <c r="BS209" s="7"/>
+    </row>
+    <row r="210" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -15123,8 +16161,12 @@
       <c r="BM210" s="7"/>
       <c r="BN210" s="7"/>
       <c r="BO210" s="7"/>
-    </row>
-    <row r="211" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP210" s="7"/>
+      <c r="BQ210" s="7"/>
+      <c r="BR210" s="7"/>
+      <c r="BS210" s="7"/>
+    </row>
+    <row r="211" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -15190,8 +16232,12 @@
       <c r="BM211" s="7"/>
       <c r="BN211" s="7"/>
       <c r="BO211" s="7"/>
-    </row>
-    <row r="212" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP211" s="7"/>
+      <c r="BQ211" s="7"/>
+      <c r="BR211" s="7"/>
+      <c r="BS211" s="7"/>
+    </row>
+    <row r="212" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -15257,8 +16303,12 @@
       <c r="BM212" s="7"/>
       <c r="BN212" s="7"/>
       <c r="BO212" s="7"/>
-    </row>
-    <row r="213" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP212" s="7"/>
+      <c r="BQ212" s="7"/>
+      <c r="BR212" s="7"/>
+      <c r="BS212" s="7"/>
+    </row>
+    <row r="213" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -15324,8 +16374,12 @@
       <c r="BM213" s="7"/>
       <c r="BN213" s="7"/>
       <c r="BO213" s="7"/>
-    </row>
-    <row r="214" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP213" s="7"/>
+      <c r="BQ213" s="7"/>
+      <c r="BR213" s="7"/>
+      <c r="BS213" s="7"/>
+    </row>
+    <row r="214" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -15391,8 +16445,12 @@
       <c r="BM214" s="7"/>
       <c r="BN214" s="7"/>
       <c r="BO214" s="7"/>
-    </row>
-    <row r="215" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP214" s="7"/>
+      <c r="BQ214" s="7"/>
+      <c r="BR214" s="7"/>
+      <c r="BS214" s="7"/>
+    </row>
+    <row r="215" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -15458,8 +16516,12 @@
       <c r="BM215" s="7"/>
       <c r="BN215" s="7"/>
       <c r="BO215" s="7"/>
-    </row>
-    <row r="216" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP215" s="7"/>
+      <c r="BQ215" s="7"/>
+      <c r="BR215" s="7"/>
+      <c r="BS215" s="7"/>
+    </row>
+    <row r="216" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -15525,8 +16587,12 @@
       <c r="BM216" s="7"/>
       <c r="BN216" s="7"/>
       <c r="BO216" s="7"/>
-    </row>
-    <row r="217" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP216" s="7"/>
+      <c r="BQ216" s="7"/>
+      <c r="BR216" s="7"/>
+      <c r="BS216" s="7"/>
+    </row>
+    <row r="217" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -15592,8 +16658,12 @@
       <c r="BM217" s="7"/>
       <c r="BN217" s="7"/>
       <c r="BO217" s="7"/>
-    </row>
-    <row r="218" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP217" s="7"/>
+      <c r="BQ217" s="7"/>
+      <c r="BR217" s="7"/>
+      <c r="BS217" s="7"/>
+    </row>
+    <row r="218" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -15659,8 +16729,12 @@
       <c r="BM218" s="7"/>
       <c r="BN218" s="7"/>
       <c r="BO218" s="7"/>
-    </row>
-    <row r="219" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP218" s="7"/>
+      <c r="BQ218" s="7"/>
+      <c r="BR218" s="7"/>
+      <c r="BS218" s="7"/>
+    </row>
+    <row r="219" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -15726,8 +16800,12 @@
       <c r="BM219" s="7"/>
       <c r="BN219" s="7"/>
       <c r="BO219" s="7"/>
-    </row>
-    <row r="220" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP219" s="7"/>
+      <c r="BQ219" s="7"/>
+      <c r="BR219" s="7"/>
+      <c r="BS219" s="7"/>
+    </row>
+    <row r="220" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -15793,8 +16871,12 @@
       <c r="BM220" s="7"/>
       <c r="BN220" s="7"/>
       <c r="BO220" s="7"/>
-    </row>
-    <row r="221" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP220" s="7"/>
+      <c r="BQ220" s="7"/>
+      <c r="BR220" s="7"/>
+      <c r="BS220" s="7"/>
+    </row>
+    <row r="221" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -15860,8 +16942,12 @@
       <c r="BM221" s="7"/>
       <c r="BN221" s="7"/>
       <c r="BO221" s="7"/>
-    </row>
-    <row r="222" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP221" s="7"/>
+      <c r="BQ221" s="7"/>
+      <c r="BR221" s="7"/>
+      <c r="BS221" s="7"/>
+    </row>
+    <row r="222" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -15927,8 +17013,12 @@
       <c r="BM222" s="7"/>
       <c r="BN222" s="7"/>
       <c r="BO222" s="7"/>
-    </row>
-    <row r="223" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP222" s="7"/>
+      <c r="BQ222" s="7"/>
+      <c r="BR222" s="7"/>
+      <c r="BS222" s="7"/>
+    </row>
+    <row r="223" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -15994,8 +17084,12 @@
       <c r="BM223" s="7"/>
       <c r="BN223" s="7"/>
       <c r="BO223" s="7"/>
-    </row>
-    <row r="224" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP223" s="7"/>
+      <c r="BQ223" s="7"/>
+      <c r="BR223" s="7"/>
+      <c r="BS223" s="7"/>
+    </row>
+    <row r="224" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -16061,8 +17155,12 @@
       <c r="BM224" s="7"/>
       <c r="BN224" s="7"/>
       <c r="BO224" s="7"/>
-    </row>
-    <row r="225" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP224" s="7"/>
+      <c r="BQ224" s="7"/>
+      <c r="BR224" s="7"/>
+      <c r="BS224" s="7"/>
+    </row>
+    <row r="225" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -16128,8 +17226,12 @@
       <c r="BM225" s="7"/>
       <c r="BN225" s="7"/>
       <c r="BO225" s="7"/>
-    </row>
-    <row r="226" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP225" s="7"/>
+      <c r="BQ225" s="7"/>
+      <c r="BR225" s="7"/>
+      <c r="BS225" s="7"/>
+    </row>
+    <row r="226" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -16195,8 +17297,12 @@
       <c r="BM226" s="7"/>
       <c r="BN226" s="7"/>
       <c r="BO226" s="7"/>
-    </row>
-    <row r="227" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP226" s="7"/>
+      <c r="BQ226" s="7"/>
+      <c r="BR226" s="7"/>
+      <c r="BS226" s="7"/>
+    </row>
+    <row r="227" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -16262,8 +17368,12 @@
       <c r="BM227" s="7"/>
       <c r="BN227" s="7"/>
       <c r="BO227" s="7"/>
-    </row>
-    <row r="228" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP227" s="7"/>
+      <c r="BQ227" s="7"/>
+      <c r="BR227" s="7"/>
+      <c r="BS227" s="7"/>
+    </row>
+    <row r="228" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -16329,8 +17439,12 @@
       <c r="BM228" s="7"/>
       <c r="BN228" s="7"/>
       <c r="BO228" s="7"/>
-    </row>
-    <row r="229" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP228" s="7"/>
+      <c r="BQ228" s="7"/>
+      <c r="BR228" s="7"/>
+      <c r="BS228" s="7"/>
+    </row>
+    <row r="229" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -16396,8 +17510,12 @@
       <c r="BM229" s="7"/>
       <c r="BN229" s="7"/>
       <c r="BO229" s="7"/>
-    </row>
-    <row r="230" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP229" s="7"/>
+      <c r="BQ229" s="7"/>
+      <c r="BR229" s="7"/>
+      <c r="BS229" s="7"/>
+    </row>
+    <row r="230" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -16463,8 +17581,12 @@
       <c r="BM230" s="7"/>
       <c r="BN230" s="7"/>
       <c r="BO230" s="7"/>
-    </row>
-    <row r="231" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP230" s="7"/>
+      <c r="BQ230" s="7"/>
+      <c r="BR230" s="7"/>
+      <c r="BS230" s="7"/>
+    </row>
+    <row r="231" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -16530,8 +17652,12 @@
       <c r="BM231" s="7"/>
       <c r="BN231" s="7"/>
       <c r="BO231" s="7"/>
-    </row>
-    <row r="232" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP231" s="7"/>
+      <c r="BQ231" s="7"/>
+      <c r="BR231" s="7"/>
+      <c r="BS231" s="7"/>
+    </row>
+    <row r="232" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -16597,8 +17723,12 @@
       <c r="BM232" s="7"/>
       <c r="BN232" s="7"/>
       <c r="BO232" s="7"/>
-    </row>
-    <row r="233" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP232" s="7"/>
+      <c r="BQ232" s="7"/>
+      <c r="BR232" s="7"/>
+      <c r="BS232" s="7"/>
+    </row>
+    <row r="233" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -16664,8 +17794,12 @@
       <c r="BM233" s="7"/>
       <c r="BN233" s="7"/>
       <c r="BO233" s="7"/>
-    </row>
-    <row r="234" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP233" s="7"/>
+      <c r="BQ233" s="7"/>
+      <c r="BR233" s="7"/>
+      <c r="BS233" s="7"/>
+    </row>
+    <row r="234" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -16731,8 +17865,12 @@
       <c r="BM234" s="7"/>
       <c r="BN234" s="7"/>
       <c r="BO234" s="7"/>
-    </row>
-    <row r="235" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP234" s="7"/>
+      <c r="BQ234" s="7"/>
+      <c r="BR234" s="7"/>
+      <c r="BS234" s="7"/>
+    </row>
+    <row r="235" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -16798,8 +17936,12 @@
       <c r="BM235" s="7"/>
       <c r="BN235" s="7"/>
       <c r="BO235" s="7"/>
-    </row>
-    <row r="236" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP235" s="7"/>
+      <c r="BQ235" s="7"/>
+      <c r="BR235" s="7"/>
+      <c r="BS235" s="7"/>
+    </row>
+    <row r="236" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -16865,8 +18007,12 @@
       <c r="BM236" s="7"/>
       <c r="BN236" s="7"/>
       <c r="BO236" s="7"/>
-    </row>
-    <row r="237" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP236" s="7"/>
+      <c r="BQ236" s="7"/>
+      <c r="BR236" s="7"/>
+      <c r="BS236" s="7"/>
+    </row>
+    <row r="237" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -16932,8 +18078,12 @@
       <c r="BM237" s="7"/>
       <c r="BN237" s="7"/>
       <c r="BO237" s="7"/>
-    </row>
-    <row r="238" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP237" s="7"/>
+      <c r="BQ237" s="7"/>
+      <c r="BR237" s="7"/>
+      <c r="BS237" s="7"/>
+    </row>
+    <row r="238" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -16999,8 +18149,12 @@
       <c r="BM238" s="7"/>
       <c r="BN238" s="7"/>
       <c r="BO238" s="7"/>
-    </row>
-    <row r="239" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP238" s="7"/>
+      <c r="BQ238" s="7"/>
+      <c r="BR238" s="7"/>
+      <c r="BS238" s="7"/>
+    </row>
+    <row r="239" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -17066,8 +18220,12 @@
       <c r="BM239" s="7"/>
       <c r="BN239" s="7"/>
       <c r="BO239" s="7"/>
-    </row>
-    <row r="240" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP239" s="7"/>
+      <c r="BQ239" s="7"/>
+      <c r="BR239" s="7"/>
+      <c r="BS239" s="7"/>
+    </row>
+    <row r="240" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -17133,8 +18291,12 @@
       <c r="BM240" s="7"/>
       <c r="BN240" s="7"/>
       <c r="BO240" s="7"/>
-    </row>
-    <row r="241" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP240" s="7"/>
+      <c r="BQ240" s="7"/>
+      <c r="BR240" s="7"/>
+      <c r="BS240" s="7"/>
+    </row>
+    <row r="241" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -17200,8 +18362,12 @@
       <c r="BM241" s="7"/>
       <c r="BN241" s="7"/>
       <c r="BO241" s="7"/>
-    </row>
-    <row r="242" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP241" s="7"/>
+      <c r="BQ241" s="7"/>
+      <c r="BR241" s="7"/>
+      <c r="BS241" s="7"/>
+    </row>
+    <row r="242" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -17267,8 +18433,12 @@
       <c r="BM242" s="7"/>
       <c r="BN242" s="7"/>
       <c r="BO242" s="7"/>
-    </row>
-    <row r="243" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP242" s="7"/>
+      <c r="BQ242" s="7"/>
+      <c r="BR242" s="7"/>
+      <c r="BS242" s="7"/>
+    </row>
+    <row r="243" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -17334,8 +18504,12 @@
       <c r="BM243" s="7"/>
       <c r="BN243" s="7"/>
       <c r="BO243" s="7"/>
-    </row>
-    <row r="244" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP243" s="7"/>
+      <c r="BQ243" s="7"/>
+      <c r="BR243" s="7"/>
+      <c r="BS243" s="7"/>
+    </row>
+    <row r="244" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -17401,8 +18575,12 @@
       <c r="BM244" s="7"/>
       <c r="BN244" s="7"/>
       <c r="BO244" s="7"/>
-    </row>
-    <row r="245" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP244" s="7"/>
+      <c r="BQ244" s="7"/>
+      <c r="BR244" s="7"/>
+      <c r="BS244" s="7"/>
+    </row>
+    <row r="245" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -17468,8 +18646,12 @@
       <c r="BM245" s="7"/>
       <c r="BN245" s="7"/>
       <c r="BO245" s="7"/>
-    </row>
-    <row r="246" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP245" s="7"/>
+      <c r="BQ245" s="7"/>
+      <c r="BR245" s="7"/>
+      <c r="BS245" s="7"/>
+    </row>
+    <row r="246" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -17535,8 +18717,12 @@
       <c r="BM246" s="7"/>
       <c r="BN246" s="7"/>
       <c r="BO246" s="7"/>
-    </row>
-    <row r="247" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP246" s="7"/>
+      <c r="BQ246" s="7"/>
+      <c r="BR246" s="7"/>
+      <c r="BS246" s="7"/>
+    </row>
+    <row r="247" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -17602,8 +18788,12 @@
       <c r="BM247" s="7"/>
       <c r="BN247" s="7"/>
       <c r="BO247" s="7"/>
-    </row>
-    <row r="248" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP247" s="7"/>
+      <c r="BQ247" s="7"/>
+      <c r="BR247" s="7"/>
+      <c r="BS247" s="7"/>
+    </row>
+    <row r="248" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -17669,8 +18859,12 @@
       <c r="BM248" s="7"/>
       <c r="BN248" s="7"/>
       <c r="BO248" s="7"/>
-    </row>
-    <row r="249" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP248" s="7"/>
+      <c r="BQ248" s="7"/>
+      <c r="BR248" s="7"/>
+      <c r="BS248" s="7"/>
+    </row>
+    <row r="249" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -17736,8 +18930,12 @@
       <c r="BM249" s="7"/>
       <c r="BN249" s="7"/>
       <c r="BO249" s="7"/>
-    </row>
-    <row r="250" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP249" s="7"/>
+      <c r="BQ249" s="7"/>
+      <c r="BR249" s="7"/>
+      <c r="BS249" s="7"/>
+    </row>
+    <row r="250" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -17803,8 +19001,12 @@
       <c r="BM250" s="7"/>
       <c r="BN250" s="7"/>
       <c r="BO250" s="7"/>
-    </row>
-    <row r="251" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP250" s="7"/>
+      <c r="BQ250" s="7"/>
+      <c r="BR250" s="7"/>
+      <c r="BS250" s="7"/>
+    </row>
+    <row r="251" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -17870,8 +19072,12 @@
       <c r="BM251" s="7"/>
       <c r="BN251" s="7"/>
       <c r="BO251" s="7"/>
-    </row>
-    <row r="252" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP251" s="7"/>
+      <c r="BQ251" s="7"/>
+      <c r="BR251" s="7"/>
+      <c r="BS251" s="7"/>
+    </row>
+    <row r="252" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -17937,8 +19143,12 @@
       <c r="BM252" s="7"/>
       <c r="BN252" s="7"/>
       <c r="BO252" s="7"/>
-    </row>
-    <row r="253" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP252" s="7"/>
+      <c r="BQ252" s="7"/>
+      <c r="BR252" s="7"/>
+      <c r="BS252" s="7"/>
+    </row>
+    <row r="253" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -18004,8 +19214,12 @@
       <c r="BM253" s="7"/>
       <c r="BN253" s="7"/>
       <c r="BO253" s="7"/>
-    </row>
-    <row r="254" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP253" s="7"/>
+      <c r="BQ253" s="7"/>
+      <c r="BR253" s="7"/>
+      <c r="BS253" s="7"/>
+    </row>
+    <row r="254" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -18071,8 +19285,12 @@
       <c r="BM254" s="7"/>
       <c r="BN254" s="7"/>
       <c r="BO254" s="7"/>
-    </row>
-    <row r="255" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP254" s="7"/>
+      <c r="BQ254" s="7"/>
+      <c r="BR254" s="7"/>
+      <c r="BS254" s="7"/>
+    </row>
+    <row r="255" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -18138,8 +19356,12 @@
       <c r="BM255" s="7"/>
       <c r="BN255" s="7"/>
       <c r="BO255" s="7"/>
-    </row>
-    <row r="256" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP255" s="7"/>
+      <c r="BQ255" s="7"/>
+      <c r="BR255" s="7"/>
+      <c r="BS255" s="7"/>
+    </row>
+    <row r="256" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -18205,8 +19427,12 @@
       <c r="BM256" s="7"/>
       <c r="BN256" s="7"/>
       <c r="BO256" s="7"/>
-    </row>
-    <row r="257" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP256" s="7"/>
+      <c r="BQ256" s="7"/>
+      <c r="BR256" s="7"/>
+      <c r="BS256" s="7"/>
+    </row>
+    <row r="257" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -18272,8 +19498,12 @@
       <c r="BM257" s="7"/>
       <c r="BN257" s="7"/>
       <c r="BO257" s="7"/>
-    </row>
-    <row r="258" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP257" s="7"/>
+      <c r="BQ257" s="7"/>
+      <c r="BR257" s="7"/>
+      <c r="BS257" s="7"/>
+    </row>
+    <row r="258" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -18339,8 +19569,12 @@
       <c r="BM258" s="7"/>
       <c r="BN258" s="7"/>
       <c r="BO258" s="7"/>
-    </row>
-    <row r="259" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP258" s="7"/>
+      <c r="BQ258" s="7"/>
+      <c r="BR258" s="7"/>
+      <c r="BS258" s="7"/>
+    </row>
+    <row r="259" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -18406,8 +19640,12 @@
       <c r="BM259" s="7"/>
       <c r="BN259" s="7"/>
       <c r="BO259" s="7"/>
-    </row>
-    <row r="260" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP259" s="7"/>
+      <c r="BQ259" s="7"/>
+      <c r="BR259" s="7"/>
+      <c r="BS259" s="7"/>
+    </row>
+    <row r="260" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -18473,8 +19711,12 @@
       <c r="BM260" s="7"/>
       <c r="BN260" s="7"/>
       <c r="BO260" s="7"/>
-    </row>
-    <row r="261" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP260" s="7"/>
+      <c r="BQ260" s="7"/>
+      <c r="BR260" s="7"/>
+      <c r="BS260" s="7"/>
+    </row>
+    <row r="261" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -18540,8 +19782,12 @@
       <c r="BM261" s="7"/>
       <c r="BN261" s="7"/>
       <c r="BO261" s="7"/>
-    </row>
-    <row r="262" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP261" s="7"/>
+      <c r="BQ261" s="7"/>
+      <c r="BR261" s="7"/>
+      <c r="BS261" s="7"/>
+    </row>
+    <row r="262" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -18607,8 +19853,12 @@
       <c r="BM262" s="7"/>
       <c r="BN262" s="7"/>
       <c r="BO262" s="7"/>
-    </row>
-    <row r="263" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP262" s="7"/>
+      <c r="BQ262" s="7"/>
+      <c r="BR262" s="7"/>
+      <c r="BS262" s="7"/>
+    </row>
+    <row r="263" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -18674,8 +19924,12 @@
       <c r="BM263" s="7"/>
       <c r="BN263" s="7"/>
       <c r="BO263" s="7"/>
-    </row>
-    <row r="264" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP263" s="7"/>
+      <c r="BQ263" s="7"/>
+      <c r="BR263" s="7"/>
+      <c r="BS263" s="7"/>
+    </row>
+    <row r="264" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -18741,8 +19995,12 @@
       <c r="BM264" s="7"/>
       <c r="BN264" s="7"/>
       <c r="BO264" s="7"/>
-    </row>
-    <row r="265" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP264" s="7"/>
+      <c r="BQ264" s="7"/>
+      <c r="BR264" s="7"/>
+      <c r="BS264" s="7"/>
+    </row>
+    <row r="265" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -18808,8 +20066,12 @@
       <c r="BM265" s="7"/>
       <c r="BN265" s="7"/>
       <c r="BO265" s="7"/>
-    </row>
-    <row r="266" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP265" s="7"/>
+      <c r="BQ265" s="7"/>
+      <c r="BR265" s="7"/>
+      <c r="BS265" s="7"/>
+    </row>
+    <row r="266" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -18875,8 +20137,12 @@
       <c r="BM266" s="7"/>
       <c r="BN266" s="7"/>
       <c r="BO266" s="7"/>
-    </row>
-    <row r="267" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP266" s="7"/>
+      <c r="BQ266" s="7"/>
+      <c r="BR266" s="7"/>
+      <c r="BS266" s="7"/>
+    </row>
+    <row r="267" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -18942,8 +20208,12 @@
       <c r="BM267" s="7"/>
       <c r="BN267" s="7"/>
       <c r="BO267" s="7"/>
-    </row>
-    <row r="268" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP267" s="7"/>
+      <c r="BQ267" s="7"/>
+      <c r="BR267" s="7"/>
+      <c r="BS267" s="7"/>
+    </row>
+    <row r="268" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -19009,8 +20279,12 @@
       <c r="BM268" s="7"/>
       <c r="BN268" s="7"/>
       <c r="BO268" s="7"/>
-    </row>
-    <row r="269" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP268" s="7"/>
+      <c r="BQ268" s="7"/>
+      <c r="BR268" s="7"/>
+      <c r="BS268" s="7"/>
+    </row>
+    <row r="269" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -19076,8 +20350,12 @@
       <c r="BM269" s="7"/>
       <c r="BN269" s="7"/>
       <c r="BO269" s="7"/>
-    </row>
-    <row r="270" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP269" s="7"/>
+      <c r="BQ269" s="7"/>
+      <c r="BR269" s="7"/>
+      <c r="BS269" s="7"/>
+    </row>
+    <row r="270" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -19143,8 +20421,12 @@
       <c r="BM270" s="7"/>
       <c r="BN270" s="7"/>
       <c r="BO270" s="7"/>
-    </row>
-    <row r="271" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP270" s="7"/>
+      <c r="BQ270" s="7"/>
+      <c r="BR270" s="7"/>
+      <c r="BS270" s="7"/>
+    </row>
+    <row r="271" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -19210,8 +20492,12 @@
       <c r="BM271" s="7"/>
       <c r="BN271" s="7"/>
       <c r="BO271" s="7"/>
-    </row>
-    <row r="272" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP271" s="7"/>
+      <c r="BQ271" s="7"/>
+      <c r="BR271" s="7"/>
+      <c r="BS271" s="7"/>
+    </row>
+    <row r="272" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -19277,8 +20563,12 @@
       <c r="BM272" s="7"/>
       <c r="BN272" s="7"/>
       <c r="BO272" s="7"/>
-    </row>
-    <row r="273" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP272" s="7"/>
+      <c r="BQ272" s="7"/>
+      <c r="BR272" s="7"/>
+      <c r="BS272" s="7"/>
+    </row>
+    <row r="273" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -19344,8 +20634,12 @@
       <c r="BM273" s="7"/>
       <c r="BN273" s="7"/>
       <c r="BO273" s="7"/>
-    </row>
-    <row r="274" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP273" s="7"/>
+      <c r="BQ273" s="7"/>
+      <c r="BR273" s="7"/>
+      <c r="BS273" s="7"/>
+    </row>
+    <row r="274" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -19411,8 +20705,12 @@
       <c r="BM274" s="7"/>
       <c r="BN274" s="7"/>
       <c r="BO274" s="7"/>
-    </row>
-    <row r="275" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP274" s="7"/>
+      <c r="BQ274" s="7"/>
+      <c r="BR274" s="7"/>
+      <c r="BS274" s="7"/>
+    </row>
+    <row r="275" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -19478,8 +20776,12 @@
       <c r="BM275" s="7"/>
       <c r="BN275" s="7"/>
       <c r="BO275" s="7"/>
-    </row>
-    <row r="276" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP275" s="7"/>
+      <c r="BQ275" s="7"/>
+      <c r="BR275" s="7"/>
+      <c r="BS275" s="7"/>
+    </row>
+    <row r="276" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -19545,8 +20847,12 @@
       <c r="BM276" s="7"/>
       <c r="BN276" s="7"/>
       <c r="BO276" s="7"/>
-    </row>
-    <row r="277" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP276" s="7"/>
+      <c r="BQ276" s="7"/>
+      <c r="BR276" s="7"/>
+      <c r="BS276" s="7"/>
+    </row>
+    <row r="277" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -19612,8 +20918,12 @@
       <c r="BM277" s="7"/>
       <c r="BN277" s="7"/>
       <c r="BO277" s="7"/>
-    </row>
-    <row r="278" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP277" s="7"/>
+      <c r="BQ277" s="7"/>
+      <c r="BR277" s="7"/>
+      <c r="BS277" s="7"/>
+    </row>
+    <row r="278" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -19679,8 +20989,12 @@
       <c r="BM278" s="7"/>
       <c r="BN278" s="7"/>
       <c r="BO278" s="7"/>
-    </row>
-    <row r="279" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP278" s="7"/>
+      <c r="BQ278" s="7"/>
+      <c r="BR278" s="7"/>
+      <c r="BS278" s="7"/>
+    </row>
+    <row r="279" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -19746,8 +21060,12 @@
       <c r="BM279" s="7"/>
       <c r="BN279" s="7"/>
       <c r="BO279" s="7"/>
-    </row>
-    <row r="280" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP279" s="7"/>
+      <c r="BQ279" s="7"/>
+      <c r="BR279" s="7"/>
+      <c r="BS279" s="7"/>
+    </row>
+    <row r="280" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -19813,8 +21131,12 @@
       <c r="BM280" s="7"/>
       <c r="BN280" s="7"/>
       <c r="BO280" s="7"/>
-    </row>
-    <row r="281" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP280" s="7"/>
+      <c r="BQ280" s="7"/>
+      <c r="BR280" s="7"/>
+      <c r="BS280" s="7"/>
+    </row>
+    <row r="281" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -19880,8 +21202,12 @@
       <c r="BM281" s="7"/>
       <c r="BN281" s="7"/>
       <c r="BO281" s="7"/>
-    </row>
-    <row r="282" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP281" s="7"/>
+      <c r="BQ281" s="7"/>
+      <c r="BR281" s="7"/>
+      <c r="BS281" s="7"/>
+    </row>
+    <row r="282" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -19947,8 +21273,12 @@
       <c r="BM282" s="7"/>
       <c r="BN282" s="7"/>
       <c r="BO282" s="7"/>
-    </row>
-    <row r="283" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP282" s="7"/>
+      <c r="BQ282" s="7"/>
+      <c r="BR282" s="7"/>
+      <c r="BS282" s="7"/>
+    </row>
+    <row r="283" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -20014,8 +21344,12 @@
       <c r="BM283" s="7"/>
       <c r="BN283" s="7"/>
       <c r="BO283" s="7"/>
-    </row>
-    <row r="284" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP283" s="7"/>
+      <c r="BQ283" s="7"/>
+      <c r="BR283" s="7"/>
+      <c r="BS283" s="7"/>
+    </row>
+    <row r="284" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -20081,8 +21415,12 @@
       <c r="BM284" s="7"/>
       <c r="BN284" s="7"/>
       <c r="BO284" s="7"/>
-    </row>
-    <row r="285" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP284" s="7"/>
+      <c r="BQ284" s="7"/>
+      <c r="BR284" s="7"/>
+      <c r="BS284" s="7"/>
+    </row>
+    <row r="285" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -20148,8 +21486,12 @@
       <c r="BM285" s="7"/>
       <c r="BN285" s="7"/>
       <c r="BO285" s="7"/>
-    </row>
-    <row r="286" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP285" s="7"/>
+      <c r="BQ285" s="7"/>
+      <c r="BR285" s="7"/>
+      <c r="BS285" s="7"/>
+    </row>
+    <row r="286" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -20215,8 +21557,12 @@
       <c r="BM286" s="7"/>
       <c r="BN286" s="7"/>
       <c r="BO286" s="7"/>
-    </row>
-    <row r="287" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP286" s="7"/>
+      <c r="BQ286" s="7"/>
+      <c r="BR286" s="7"/>
+      <c r="BS286" s="7"/>
+    </row>
+    <row r="287" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -20282,8 +21628,12 @@
       <c r="BM287" s="7"/>
       <c r="BN287" s="7"/>
       <c r="BO287" s="7"/>
-    </row>
-    <row r="288" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP287" s="7"/>
+      <c r="BQ287" s="7"/>
+      <c r="BR287" s="7"/>
+      <c r="BS287" s="7"/>
+    </row>
+    <row r="288" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -20349,8 +21699,12 @@
       <c r="BM288" s="7"/>
       <c r="BN288" s="7"/>
       <c r="BO288" s="7"/>
-    </row>
-    <row r="289" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP288" s="7"/>
+      <c r="BQ288" s="7"/>
+      <c r="BR288" s="7"/>
+      <c r="BS288" s="7"/>
+    </row>
+    <row r="289" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -20416,8 +21770,12 @@
       <c r="BM289" s="7"/>
       <c r="BN289" s="7"/>
       <c r="BO289" s="7"/>
-    </row>
-    <row r="290" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP289" s="7"/>
+      <c r="BQ289" s="7"/>
+      <c r="BR289" s="7"/>
+      <c r="BS289" s="7"/>
+    </row>
+    <row r="290" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -20483,8 +21841,12 @@
       <c r="BM290" s="7"/>
       <c r="BN290" s="7"/>
       <c r="BO290" s="7"/>
-    </row>
-    <row r="291" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP290" s="7"/>
+      <c r="BQ290" s="7"/>
+      <c r="BR290" s="7"/>
+      <c r="BS290" s="7"/>
+    </row>
+    <row r="291" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -20550,8 +21912,12 @@
       <c r="BM291" s="7"/>
       <c r="BN291" s="7"/>
       <c r="BO291" s="7"/>
-    </row>
-    <row r="292" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP291" s="7"/>
+      <c r="BQ291" s="7"/>
+      <c r="BR291" s="7"/>
+      <c r="BS291" s="7"/>
+    </row>
+    <row r="292" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -20617,8 +21983,12 @@
       <c r="BM292" s="7"/>
       <c r="BN292" s="7"/>
       <c r="BO292" s="7"/>
-    </row>
-    <row r="293" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP292" s="7"/>
+      <c r="BQ292" s="7"/>
+      <c r="BR292" s="7"/>
+      <c r="BS292" s="7"/>
+    </row>
+    <row r="293" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -20684,8 +22054,12 @@
       <c r="BM293" s="7"/>
       <c r="BN293" s="7"/>
       <c r="BO293" s="7"/>
-    </row>
-    <row r="294" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP293" s="7"/>
+      <c r="BQ293" s="7"/>
+      <c r="BR293" s="7"/>
+      <c r="BS293" s="7"/>
+    </row>
+    <row r="294" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -20751,8 +22125,12 @@
       <c r="BM294" s="7"/>
       <c r="BN294" s="7"/>
       <c r="BO294" s="7"/>
-    </row>
-    <row r="295" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP294" s="7"/>
+      <c r="BQ294" s="7"/>
+      <c r="BR294" s="7"/>
+      <c r="BS294" s="7"/>
+    </row>
+    <row r="295" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -20818,8 +22196,12 @@
       <c r="BM295" s="7"/>
       <c r="BN295" s="7"/>
       <c r="BO295" s="7"/>
-    </row>
-    <row r="296" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP295" s="7"/>
+      <c r="BQ295" s="7"/>
+      <c r="BR295" s="7"/>
+      <c r="BS295" s="7"/>
+    </row>
+    <row r="296" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -20885,8 +22267,12 @@
       <c r="BM296" s="7"/>
       <c r="BN296" s="7"/>
       <c r="BO296" s="7"/>
-    </row>
-    <row r="297" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP296" s="7"/>
+      <c r="BQ296" s="7"/>
+      <c r="BR296" s="7"/>
+      <c r="BS296" s="7"/>
+    </row>
+    <row r="297" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -20952,8 +22338,12 @@
       <c r="BM297" s="7"/>
       <c r="BN297" s="7"/>
       <c r="BO297" s="7"/>
-    </row>
-    <row r="298" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP297" s="7"/>
+      <c r="BQ297" s="7"/>
+      <c r="BR297" s="7"/>
+      <c r="BS297" s="7"/>
+    </row>
+    <row r="298" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -21019,8 +22409,12 @@
       <c r="BM298" s="7"/>
       <c r="BN298" s="7"/>
       <c r="BO298" s="7"/>
-    </row>
-    <row r="299" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP298" s="7"/>
+      <c r="BQ298" s="7"/>
+      <c r="BR298" s="7"/>
+      <c r="BS298" s="7"/>
+    </row>
+    <row r="299" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -21086,8 +22480,12 @@
       <c r="BM299" s="7"/>
       <c r="BN299" s="7"/>
       <c r="BO299" s="7"/>
-    </row>
-    <row r="300" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP299" s="7"/>
+      <c r="BQ299" s="7"/>
+      <c r="BR299" s="7"/>
+      <c r="BS299" s="7"/>
+    </row>
+    <row r="300" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -21153,8 +22551,12 @@
       <c r="BM300" s="7"/>
       <c r="BN300" s="7"/>
       <c r="BO300" s="7"/>
-    </row>
-    <row r="301" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP300" s="7"/>
+      <c r="BQ300" s="7"/>
+      <c r="BR300" s="7"/>
+      <c r="BS300" s="7"/>
+    </row>
+    <row r="301" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -21220,8 +22622,12 @@
       <c r="BM301" s="7"/>
       <c r="BN301" s="7"/>
       <c r="BO301" s="7"/>
-    </row>
-    <row r="302" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP301" s="7"/>
+      <c r="BQ301" s="7"/>
+      <c r="BR301" s="7"/>
+      <c r="BS301" s="7"/>
+    </row>
+    <row r="302" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -21287,8 +22693,12 @@
       <c r="BM302" s="7"/>
       <c r="BN302" s="7"/>
       <c r="BO302" s="7"/>
-    </row>
-    <row r="303" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP302" s="7"/>
+      <c r="BQ302" s="7"/>
+      <c r="BR302" s="7"/>
+      <c r="BS302" s="7"/>
+    </row>
+    <row r="303" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -21354,8 +22764,12 @@
       <c r="BM303" s="7"/>
       <c r="BN303" s="7"/>
       <c r="BO303" s="7"/>
-    </row>
-    <row r="304" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP303" s="7"/>
+      <c r="BQ303" s="7"/>
+      <c r="BR303" s="7"/>
+      <c r="BS303" s="7"/>
+    </row>
+    <row r="304" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -21421,8 +22835,12 @@
       <c r="BM304" s="7"/>
       <c r="BN304" s="7"/>
       <c r="BO304" s="7"/>
-    </row>
-    <row r="305" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP304" s="7"/>
+      <c r="BQ304" s="7"/>
+      <c r="BR304" s="7"/>
+      <c r="BS304" s="7"/>
+    </row>
+    <row r="305" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -21488,8 +22906,12 @@
       <c r="BM305" s="7"/>
       <c r="BN305" s="7"/>
       <c r="BO305" s="7"/>
-    </row>
-    <row r="306" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP305" s="7"/>
+      <c r="BQ305" s="7"/>
+      <c r="BR305" s="7"/>
+      <c r="BS305" s="7"/>
+    </row>
+    <row r="306" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -21555,8 +22977,12 @@
       <c r="BM306" s="7"/>
       <c r="BN306" s="7"/>
       <c r="BO306" s="7"/>
-    </row>
-    <row r="307" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP306" s="7"/>
+      <c r="BQ306" s="7"/>
+      <c r="BR306" s="7"/>
+      <c r="BS306" s="7"/>
+    </row>
+    <row r="307" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -21622,8 +23048,12 @@
       <c r="BM307" s="7"/>
       <c r="BN307" s="7"/>
       <c r="BO307" s="7"/>
-    </row>
-    <row r="308" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP307" s="7"/>
+      <c r="BQ307" s="7"/>
+      <c r="BR307" s="7"/>
+      <c r="BS307" s="7"/>
+    </row>
+    <row r="308" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -21689,8 +23119,12 @@
       <c r="BM308" s="7"/>
       <c r="BN308" s="7"/>
       <c r="BO308" s="7"/>
-    </row>
-    <row r="309" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP308" s="7"/>
+      <c r="BQ308" s="7"/>
+      <c r="BR308" s="7"/>
+      <c r="BS308" s="7"/>
+    </row>
+    <row r="309" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -21756,8 +23190,12 @@
       <c r="BM309" s="7"/>
       <c r="BN309" s="7"/>
       <c r="BO309" s="7"/>
-    </row>
-    <row r="310" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP309" s="7"/>
+      <c r="BQ309" s="7"/>
+      <c r="BR309" s="7"/>
+      <c r="BS309" s="7"/>
+    </row>
+    <row r="310" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -21823,8 +23261,12 @@
       <c r="BM310" s="7"/>
       <c r="BN310" s="7"/>
       <c r="BO310" s="7"/>
-    </row>
-    <row r="311" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP310" s="7"/>
+      <c r="BQ310" s="7"/>
+      <c r="BR310" s="7"/>
+      <c r="BS310" s="7"/>
+    </row>
+    <row r="311" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -21890,8 +23332,12 @@
       <c r="BM311" s="7"/>
       <c r="BN311" s="7"/>
       <c r="BO311" s="7"/>
-    </row>
-    <row r="312" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP311" s="7"/>
+      <c r="BQ311" s="7"/>
+      <c r="BR311" s="7"/>
+      <c r="BS311" s="7"/>
+    </row>
+    <row r="312" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -21957,8 +23403,12 @@
       <c r="BM312" s="7"/>
       <c r="BN312" s="7"/>
       <c r="BO312" s="7"/>
-    </row>
-    <row r="313" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP312" s="7"/>
+      <c r="BQ312" s="7"/>
+      <c r="BR312" s="7"/>
+      <c r="BS312" s="7"/>
+    </row>
+    <row r="313" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -22024,8 +23474,12 @@
       <c r="BM313" s="7"/>
       <c r="BN313" s="7"/>
       <c r="BO313" s="7"/>
-    </row>
-    <row r="314" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP313" s="7"/>
+      <c r="BQ313" s="7"/>
+      <c r="BR313" s="7"/>
+      <c r="BS313" s="7"/>
+    </row>
+    <row r="314" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -22091,8 +23545,12 @@
       <c r="BM314" s="7"/>
       <c r="BN314" s="7"/>
       <c r="BO314" s="7"/>
-    </row>
-    <row r="315" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP314" s="7"/>
+      <c r="BQ314" s="7"/>
+      <c r="BR314" s="7"/>
+      <c r="BS314" s="7"/>
+    </row>
+    <row r="315" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -22158,8 +23616,12 @@
       <c r="BM315" s="7"/>
       <c r="BN315" s="7"/>
       <c r="BO315" s="7"/>
-    </row>
-    <row r="316" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP315" s="7"/>
+      <c r="BQ315" s="7"/>
+      <c r="BR315" s="7"/>
+      <c r="BS315" s="7"/>
+    </row>
+    <row r="316" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -22225,8 +23687,12 @@
       <c r="BM316" s="7"/>
       <c r="BN316" s="7"/>
       <c r="BO316" s="7"/>
-    </row>
-    <row r="317" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP316" s="7"/>
+      <c r="BQ316" s="7"/>
+      <c r="BR316" s="7"/>
+      <c r="BS316" s="7"/>
+    </row>
+    <row r="317" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -22292,8 +23758,12 @@
       <c r="BM317" s="7"/>
       <c r="BN317" s="7"/>
       <c r="BO317" s="7"/>
-    </row>
-    <row r="318" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP317" s="7"/>
+      <c r="BQ317" s="7"/>
+      <c r="BR317" s="7"/>
+      <c r="BS317" s="7"/>
+    </row>
+    <row r="318" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -22359,8 +23829,12 @@
       <c r="BM318" s="7"/>
       <c r="BN318" s="7"/>
       <c r="BO318" s="7"/>
-    </row>
-    <row r="319" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP318" s="7"/>
+      <c r="BQ318" s="7"/>
+      <c r="BR318" s="7"/>
+      <c r="BS318" s="7"/>
+    </row>
+    <row r="319" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
@@ -22426,8 +23900,12 @@
       <c r="BM319" s="7"/>
       <c r="BN319" s="7"/>
       <c r="BO319" s="7"/>
-    </row>
-    <row r="320" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP319" s="7"/>
+      <c r="BQ319" s="7"/>
+      <c r="BR319" s="7"/>
+      <c r="BS319" s="7"/>
+    </row>
+    <row r="320" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
@@ -22493,8 +23971,12 @@
       <c r="BM320" s="7"/>
       <c r="BN320" s="7"/>
       <c r="BO320" s="7"/>
-    </row>
-    <row r="321" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP320" s="7"/>
+      <c r="BQ320" s="7"/>
+      <c r="BR320" s="7"/>
+      <c r="BS320" s="7"/>
+    </row>
+    <row r="321" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
@@ -22560,8 +24042,12 @@
       <c r="BM321" s="7"/>
       <c r="BN321" s="7"/>
       <c r="BO321" s="7"/>
-    </row>
-    <row r="322" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP321" s="7"/>
+      <c r="BQ321" s="7"/>
+      <c r="BR321" s="7"/>
+      <c r="BS321" s="7"/>
+    </row>
+    <row r="322" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
@@ -22627,8 +24113,12 @@
       <c r="BM322" s="7"/>
       <c r="BN322" s="7"/>
       <c r="BO322" s="7"/>
-    </row>
-    <row r="323" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP322" s="7"/>
+      <c r="BQ322" s="7"/>
+      <c r="BR322" s="7"/>
+      <c r="BS322" s="7"/>
+    </row>
+    <row r="323" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
@@ -22694,8 +24184,12 @@
       <c r="BM323" s="7"/>
       <c r="BN323" s="7"/>
       <c r="BO323" s="7"/>
-    </row>
-    <row r="324" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP323" s="7"/>
+      <c r="BQ323" s="7"/>
+      <c r="BR323" s="7"/>
+      <c r="BS323" s="7"/>
+    </row>
+    <row r="324" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -22761,8 +24255,12 @@
       <c r="BM324" s="7"/>
       <c r="BN324" s="7"/>
       <c r="BO324" s="7"/>
-    </row>
-    <row r="325" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP324" s="7"/>
+      <c r="BQ324" s="7"/>
+      <c r="BR324" s="7"/>
+      <c r="BS324" s="7"/>
+    </row>
+    <row r="325" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -22828,8 +24326,12 @@
       <c r="BM325" s="7"/>
       <c r="BN325" s="7"/>
       <c r="BO325" s="7"/>
-    </row>
-    <row r="326" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP325" s="7"/>
+      <c r="BQ325" s="7"/>
+      <c r="BR325" s="7"/>
+      <c r="BS325" s="7"/>
+    </row>
+    <row r="326" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
@@ -22895,8 +24397,12 @@
       <c r="BM326" s="7"/>
       <c r="BN326" s="7"/>
       <c r="BO326" s="7"/>
-    </row>
-    <row r="327" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP326" s="7"/>
+      <c r="BQ326" s="7"/>
+      <c r="BR326" s="7"/>
+      <c r="BS326" s="7"/>
+    </row>
+    <row r="327" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
@@ -22962,8 +24468,12 @@
       <c r="BM327" s="7"/>
       <c r="BN327" s="7"/>
       <c r="BO327" s="7"/>
-    </row>
-    <row r="328" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP327" s="7"/>
+      <c r="BQ327" s="7"/>
+      <c r="BR327" s="7"/>
+      <c r="BS327" s="7"/>
+    </row>
+    <row r="328" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
@@ -23029,8 +24539,12 @@
       <c r="BM328" s="7"/>
       <c r="BN328" s="7"/>
       <c r="BO328" s="7"/>
-    </row>
-    <row r="329" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP328" s="7"/>
+      <c r="BQ328" s="7"/>
+      <c r="BR328" s="7"/>
+      <c r="BS328" s="7"/>
+    </row>
+    <row r="329" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
@@ -23096,8 +24610,12 @@
       <c r="BM329" s="7"/>
       <c r="BN329" s="7"/>
       <c r="BO329" s="7"/>
-    </row>
-    <row r="330" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP329" s="7"/>
+      <c r="BQ329" s="7"/>
+      <c r="BR329" s="7"/>
+      <c r="BS329" s="7"/>
+    </row>
+    <row r="330" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
@@ -23163,8 +24681,12 @@
       <c r="BM330" s="7"/>
       <c r="BN330" s="7"/>
       <c r="BO330" s="7"/>
-    </row>
-    <row r="331" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP330" s="7"/>
+      <c r="BQ330" s="7"/>
+      <c r="BR330" s="7"/>
+      <c r="BS330" s="7"/>
+    </row>
+    <row r="331" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
@@ -23230,8 +24752,12 @@
       <c r="BM331" s="7"/>
       <c r="BN331" s="7"/>
       <c r="BO331" s="7"/>
-    </row>
-    <row r="332" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP331" s="7"/>
+      <c r="BQ331" s="7"/>
+      <c r="BR331" s="7"/>
+      <c r="BS331" s="7"/>
+    </row>
+    <row r="332" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
@@ -23297,8 +24823,12 @@
       <c r="BM332" s="7"/>
       <c r="BN332" s="7"/>
       <c r="BO332" s="7"/>
-    </row>
-    <row r="333" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP332" s="7"/>
+      <c r="BQ332" s="7"/>
+      <c r="BR332" s="7"/>
+      <c r="BS332" s="7"/>
+    </row>
+    <row r="333" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
@@ -23364,8 +24894,12 @@
       <c r="BM333" s="7"/>
       <c r="BN333" s="7"/>
       <c r="BO333" s="7"/>
-    </row>
-    <row r="334" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP333" s="7"/>
+      <c r="BQ333" s="7"/>
+      <c r="BR333" s="7"/>
+      <c r="BS333" s="7"/>
+    </row>
+    <row r="334" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
@@ -23431,8 +24965,12 @@
       <c r="BM334" s="7"/>
       <c r="BN334" s="7"/>
       <c r="BO334" s="7"/>
-    </row>
-    <row r="335" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP334" s="7"/>
+      <c r="BQ334" s="7"/>
+      <c r="BR334" s="7"/>
+      <c r="BS334" s="7"/>
+    </row>
+    <row r="335" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
@@ -23498,8 +25036,12 @@
       <c r="BM335" s="7"/>
       <c r="BN335" s="7"/>
       <c r="BO335" s="7"/>
-    </row>
-    <row r="336" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP335" s="7"/>
+      <c r="BQ335" s="7"/>
+      <c r="BR335" s="7"/>
+      <c r="BS335" s="7"/>
+    </row>
+    <row r="336" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -23565,8 +25107,12 @@
       <c r="BM336" s="7"/>
       <c r="BN336" s="7"/>
       <c r="BO336" s="7"/>
-    </row>
-    <row r="337" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP336" s="7"/>
+      <c r="BQ336" s="7"/>
+      <c r="BR336" s="7"/>
+      <c r="BS336" s="7"/>
+    </row>
+    <row r="337" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -23632,8 +25178,12 @@
       <c r="BM337" s="7"/>
       <c r="BN337" s="7"/>
       <c r="BO337" s="7"/>
-    </row>
-    <row r="338" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP337" s="7"/>
+      <c r="BQ337" s="7"/>
+      <c r="BR337" s="7"/>
+      <c r="BS337" s="7"/>
+    </row>
+    <row r="338" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -23699,8 +25249,12 @@
       <c r="BM338" s="7"/>
       <c r="BN338" s="7"/>
       <c r="BO338" s="7"/>
-    </row>
-    <row r="339" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP338" s="7"/>
+      <c r="BQ338" s="7"/>
+      <c r="BR338" s="7"/>
+      <c r="BS338" s="7"/>
+    </row>
+    <row r="339" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -23766,8 +25320,12 @@
       <c r="BM339" s="7"/>
       <c r="BN339" s="7"/>
       <c r="BO339" s="7"/>
-    </row>
-    <row r="340" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP339" s="7"/>
+      <c r="BQ339" s="7"/>
+      <c r="BR339" s="7"/>
+      <c r="BS339" s="7"/>
+    </row>
+    <row r="340" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -23833,8 +25391,12 @@
       <c r="BM340" s="7"/>
       <c r="BN340" s="7"/>
       <c r="BO340" s="7"/>
-    </row>
-    <row r="341" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP340" s="7"/>
+      <c r="BQ340" s="7"/>
+      <c r="BR340" s="7"/>
+      <c r="BS340" s="7"/>
+    </row>
+    <row r="341" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -23900,8 +25462,12 @@
       <c r="BM341" s="7"/>
       <c r="BN341" s="7"/>
       <c r="BO341" s="7"/>
-    </row>
-    <row r="342" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP341" s="7"/>
+      <c r="BQ341" s="7"/>
+      <c r="BR341" s="7"/>
+      <c r="BS341" s="7"/>
+    </row>
+    <row r="342" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -23967,8 +25533,12 @@
       <c r="BM342" s="7"/>
       <c r="BN342" s="7"/>
       <c r="BO342" s="7"/>
-    </row>
-    <row r="343" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP342" s="7"/>
+      <c r="BQ342" s="7"/>
+      <c r="BR342" s="7"/>
+      <c r="BS342" s="7"/>
+    </row>
+    <row r="343" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -24034,8 +25604,12 @@
       <c r="BM343" s="7"/>
       <c r="BN343" s="7"/>
       <c r="BO343" s="7"/>
-    </row>
-    <row r="344" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP343" s="7"/>
+      <c r="BQ343" s="7"/>
+      <c r="BR343" s="7"/>
+      <c r="BS343" s="7"/>
+    </row>
+    <row r="344" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -24101,8 +25675,12 @@
       <c r="BM344" s="7"/>
       <c r="BN344" s="7"/>
       <c r="BO344" s="7"/>
-    </row>
-    <row r="345" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP344" s="7"/>
+      <c r="BQ344" s="7"/>
+      <c r="BR344" s="7"/>
+      <c r="BS344" s="7"/>
+    </row>
+    <row r="345" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -24168,8 +25746,12 @@
       <c r="BM345" s="7"/>
       <c r="BN345" s="7"/>
       <c r="BO345" s="7"/>
-    </row>
-    <row r="346" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP345" s="7"/>
+      <c r="BQ345" s="7"/>
+      <c r="BR345" s="7"/>
+      <c r="BS345" s="7"/>
+    </row>
+    <row r="346" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -24235,8 +25817,12 @@
       <c r="BM346" s="7"/>
       <c r="BN346" s="7"/>
       <c r="BO346" s="7"/>
-    </row>
-    <row r="347" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP346" s="7"/>
+      <c r="BQ346" s="7"/>
+      <c r="BR346" s="7"/>
+      <c r="BS346" s="7"/>
+    </row>
+    <row r="347" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -24302,8 +25888,12 @@
       <c r="BM347" s="7"/>
       <c r="BN347" s="7"/>
       <c r="BO347" s="7"/>
-    </row>
-    <row r="348" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP347" s="7"/>
+      <c r="BQ347" s="7"/>
+      <c r="BR347" s="7"/>
+      <c r="BS347" s="7"/>
+    </row>
+    <row r="348" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -24369,8 +25959,12 @@
       <c r="BM348" s="7"/>
       <c r="BN348" s="7"/>
       <c r="BO348" s="7"/>
-    </row>
-    <row r="349" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP348" s="7"/>
+      <c r="BQ348" s="7"/>
+      <c r="BR348" s="7"/>
+      <c r="BS348" s="7"/>
+    </row>
+    <row r="349" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -24436,8 +26030,12 @@
       <c r="BM349" s="7"/>
       <c r="BN349" s="7"/>
       <c r="BO349" s="7"/>
-    </row>
-    <row r="350" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP349" s="7"/>
+      <c r="BQ349" s="7"/>
+      <c r="BR349" s="7"/>
+      <c r="BS349" s="7"/>
+    </row>
+    <row r="350" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -24503,8 +26101,12 @@
       <c r="BM350" s="7"/>
       <c r="BN350" s="7"/>
       <c r="BO350" s="7"/>
-    </row>
-    <row r="351" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP350" s="7"/>
+      <c r="BQ350" s="7"/>
+      <c r="BR350" s="7"/>
+      <c r="BS350" s="7"/>
+    </row>
+    <row r="351" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -24570,8 +26172,12 @@
       <c r="BM351" s="7"/>
       <c r="BN351" s="7"/>
       <c r="BO351" s="7"/>
-    </row>
-    <row r="352" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP351" s="7"/>
+      <c r="BQ351" s="7"/>
+      <c r="BR351" s="7"/>
+      <c r="BS351" s="7"/>
+    </row>
+    <row r="352" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -24637,8 +26243,12 @@
       <c r="BM352" s="7"/>
       <c r="BN352" s="7"/>
       <c r="BO352" s="7"/>
-    </row>
-    <row r="353" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP352" s="7"/>
+      <c r="BQ352" s="7"/>
+      <c r="BR352" s="7"/>
+      <c r="BS352" s="7"/>
+    </row>
+    <row r="353" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -24704,8 +26314,12 @@
       <c r="BM353" s="7"/>
       <c r="BN353" s="7"/>
       <c r="BO353" s="7"/>
-    </row>
-    <row r="354" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP353" s="7"/>
+      <c r="BQ353" s="7"/>
+      <c r="BR353" s="7"/>
+      <c r="BS353" s="7"/>
+    </row>
+    <row r="354" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -24771,8 +26385,12 @@
       <c r="BM354" s="7"/>
       <c r="BN354" s="7"/>
       <c r="BO354" s="7"/>
-    </row>
-    <row r="355" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP354" s="7"/>
+      <c r="BQ354" s="7"/>
+      <c r="BR354" s="7"/>
+      <c r="BS354" s="7"/>
+    </row>
+    <row r="355" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -24838,8 +26456,12 @@
       <c r="BM355" s="7"/>
       <c r="BN355" s="7"/>
       <c r="BO355" s="7"/>
-    </row>
-    <row r="356" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP355" s="7"/>
+      <c r="BQ355" s="7"/>
+      <c r="BR355" s="7"/>
+      <c r="BS355" s="7"/>
+    </row>
+    <row r="356" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -24905,8 +26527,12 @@
       <c r="BM356" s="7"/>
       <c r="BN356" s="7"/>
       <c r="BO356" s="7"/>
-    </row>
-    <row r="357" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP356" s="7"/>
+      <c r="BQ356" s="7"/>
+      <c r="BR356" s="7"/>
+      <c r="BS356" s="7"/>
+    </row>
+    <row r="357" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -24972,8 +26598,12 @@
       <c r="BM357" s="7"/>
       <c r="BN357" s="7"/>
       <c r="BO357" s="7"/>
-    </row>
-    <row r="358" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP357" s="7"/>
+      <c r="BQ357" s="7"/>
+      <c r="BR357" s="7"/>
+      <c r="BS357" s="7"/>
+    </row>
+    <row r="358" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -25039,8 +26669,12 @@
       <c r="BM358" s="7"/>
       <c r="BN358" s="7"/>
       <c r="BO358" s="7"/>
-    </row>
-    <row r="359" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP358" s="7"/>
+      <c r="BQ358" s="7"/>
+      <c r="BR358" s="7"/>
+      <c r="BS358" s="7"/>
+    </row>
+    <row r="359" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -25106,8 +26740,12 @@
       <c r="BM359" s="7"/>
       <c r="BN359" s="7"/>
       <c r="BO359" s="7"/>
-    </row>
-    <row r="360" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP359" s="7"/>
+      <c r="BQ359" s="7"/>
+      <c r="BR359" s="7"/>
+      <c r="BS359" s="7"/>
+    </row>
+    <row r="360" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -25173,8 +26811,12 @@
       <c r="BM360" s="7"/>
       <c r="BN360" s="7"/>
       <c r="BO360" s="7"/>
-    </row>
-    <row r="361" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP360" s="7"/>
+      <c r="BQ360" s="7"/>
+      <c r="BR360" s="7"/>
+      <c r="BS360" s="7"/>
+    </row>
+    <row r="361" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -25240,8 +26882,12 @@
       <c r="BM361" s="7"/>
       <c r="BN361" s="7"/>
       <c r="BO361" s="7"/>
-    </row>
-    <row r="362" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP361" s="7"/>
+      <c r="BQ361" s="7"/>
+      <c r="BR361" s="7"/>
+      <c r="BS361" s="7"/>
+    </row>
+    <row r="362" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -25307,8 +26953,12 @@
       <c r="BM362" s="7"/>
       <c r="BN362" s="7"/>
       <c r="BO362" s="7"/>
-    </row>
-    <row r="363" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP362" s="7"/>
+      <c r="BQ362" s="7"/>
+      <c r="BR362" s="7"/>
+      <c r="BS362" s="7"/>
+    </row>
+    <row r="363" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -25374,8 +27024,12 @@
       <c r="BM363" s="7"/>
       <c r="BN363" s="7"/>
       <c r="BO363" s="7"/>
-    </row>
-    <row r="364" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP363" s="7"/>
+      <c r="BQ363" s="7"/>
+      <c r="BR363" s="7"/>
+      <c r="BS363" s="7"/>
+    </row>
+    <row r="364" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -25441,8 +27095,12 @@
       <c r="BM364" s="7"/>
       <c r="BN364" s="7"/>
       <c r="BO364" s="7"/>
-    </row>
-    <row r="365" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP364" s="7"/>
+      <c r="BQ364" s="7"/>
+      <c r="BR364" s="7"/>
+      <c r="BS364" s="7"/>
+    </row>
+    <row r="365" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -25508,8 +27166,12 @@
       <c r="BM365" s="7"/>
       <c r="BN365" s="7"/>
       <c r="BO365" s="7"/>
-    </row>
-    <row r="366" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP365" s="7"/>
+      <c r="BQ365" s="7"/>
+      <c r="BR365" s="7"/>
+      <c r="BS365" s="7"/>
+    </row>
+    <row r="366" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -25575,8 +27237,12 @@
       <c r="BM366" s="7"/>
       <c r="BN366" s="7"/>
       <c r="BO366" s="7"/>
-    </row>
-    <row r="367" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP366" s="7"/>
+      <c r="BQ366" s="7"/>
+      <c r="BR366" s="7"/>
+      <c r="BS366" s="7"/>
+    </row>
+    <row r="367" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -25642,8 +27308,12 @@
       <c r="BM367" s="7"/>
       <c r="BN367" s="7"/>
       <c r="BO367" s="7"/>
-    </row>
-    <row r="368" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP367" s="7"/>
+      <c r="BQ367" s="7"/>
+      <c r="BR367" s="7"/>
+      <c r="BS367" s="7"/>
+    </row>
+    <row r="368" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -25709,8 +27379,12 @@
       <c r="BM368" s="7"/>
       <c r="BN368" s="7"/>
       <c r="BO368" s="7"/>
-    </row>
-    <row r="369" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP368" s="7"/>
+      <c r="BQ368" s="7"/>
+      <c r="BR368" s="7"/>
+      <c r="BS368" s="7"/>
+    </row>
+    <row r="369" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -25776,8 +27450,12 @@
       <c r="BM369" s="7"/>
       <c r="BN369" s="7"/>
       <c r="BO369" s="7"/>
-    </row>
-    <row r="370" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP369" s="7"/>
+      <c r="BQ369" s="7"/>
+      <c r="BR369" s="7"/>
+      <c r="BS369" s="7"/>
+    </row>
+    <row r="370" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -25843,8 +27521,12 @@
       <c r="BM370" s="7"/>
       <c r="BN370" s="7"/>
       <c r="BO370" s="7"/>
-    </row>
-    <row r="371" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP370" s="7"/>
+      <c r="BQ370" s="7"/>
+      <c r="BR370" s="7"/>
+      <c r="BS370" s="7"/>
+    </row>
+    <row r="371" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -25910,8 +27592,12 @@
       <c r="BM371" s="7"/>
       <c r="BN371" s="7"/>
       <c r="BO371" s="7"/>
-    </row>
-    <row r="372" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP371" s="7"/>
+      <c r="BQ371" s="7"/>
+      <c r="BR371" s="7"/>
+      <c r="BS371" s="7"/>
+    </row>
+    <row r="372" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -25977,8 +27663,12 @@
       <c r="BM372" s="7"/>
       <c r="BN372" s="7"/>
       <c r="BO372" s="7"/>
-    </row>
-    <row r="373" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP372" s="7"/>
+      <c r="BQ372" s="7"/>
+      <c r="BR372" s="7"/>
+      <c r="BS372" s="7"/>
+    </row>
+    <row r="373" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -26044,8 +27734,12 @@
       <c r="BM373" s="7"/>
       <c r="BN373" s="7"/>
       <c r="BO373" s="7"/>
-    </row>
-    <row r="374" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP373" s="7"/>
+      <c r="BQ373" s="7"/>
+      <c r="BR373" s="7"/>
+      <c r="BS373" s="7"/>
+    </row>
+    <row r="374" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -26111,8 +27805,12 @@
       <c r="BM374" s="7"/>
       <c r="BN374" s="7"/>
       <c r="BO374" s="7"/>
-    </row>
-    <row r="375" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP374" s="7"/>
+      <c r="BQ374" s="7"/>
+      <c r="BR374" s="7"/>
+      <c r="BS374" s="7"/>
+    </row>
+    <row r="375" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -26178,8 +27876,12 @@
       <c r="BM375" s="7"/>
       <c r="BN375" s="7"/>
       <c r="BO375" s="7"/>
-    </row>
-    <row r="376" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP375" s="7"/>
+      <c r="BQ375" s="7"/>
+      <c r="BR375" s="7"/>
+      <c r="BS375" s="7"/>
+    </row>
+    <row r="376" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -26245,8 +27947,12 @@
       <c r="BM376" s="7"/>
       <c r="BN376" s="7"/>
       <c r="BO376" s="7"/>
-    </row>
-    <row r="377" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP376" s="7"/>
+      <c r="BQ376" s="7"/>
+      <c r="BR376" s="7"/>
+      <c r="BS376" s="7"/>
+    </row>
+    <row r="377" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -26312,8 +28018,12 @@
       <c r="BM377" s="7"/>
       <c r="BN377" s="7"/>
       <c r="BO377" s="7"/>
-    </row>
-    <row r="378" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP377" s="7"/>
+      <c r="BQ377" s="7"/>
+      <c r="BR377" s="7"/>
+      <c r="BS377" s="7"/>
+    </row>
+    <row r="378" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -26379,8 +28089,12 @@
       <c r="BM378" s="7"/>
       <c r="BN378" s="7"/>
       <c r="BO378" s="7"/>
-    </row>
-    <row r="379" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP378" s="7"/>
+      <c r="BQ378" s="7"/>
+      <c r="BR378" s="7"/>
+      <c r="BS378" s="7"/>
+    </row>
+    <row r="379" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -26446,8 +28160,12 @@
       <c r="BM379" s="7"/>
       <c r="BN379" s="7"/>
       <c r="BO379" s="7"/>
-    </row>
-    <row r="380" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP379" s="7"/>
+      <c r="BQ379" s="7"/>
+      <c r="BR379" s="7"/>
+      <c r="BS379" s="7"/>
+    </row>
+    <row r="380" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -26513,8 +28231,12 @@
       <c r="BM380" s="7"/>
       <c r="BN380" s="7"/>
       <c r="BO380" s="7"/>
-    </row>
-    <row r="381" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP380" s="7"/>
+      <c r="BQ380" s="7"/>
+      <c r="BR380" s="7"/>
+      <c r="BS380" s="7"/>
+    </row>
+    <row r="381" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -26580,8 +28302,12 @@
       <c r="BM381" s="7"/>
       <c r="BN381" s="7"/>
       <c r="BO381" s="7"/>
-    </row>
-    <row r="382" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP381" s="7"/>
+      <c r="BQ381" s="7"/>
+      <c r="BR381" s="7"/>
+      <c r="BS381" s="7"/>
+    </row>
+    <row r="382" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -26647,8 +28373,12 @@
       <c r="BM382" s="7"/>
       <c r="BN382" s="7"/>
       <c r="BO382" s="7"/>
-    </row>
-    <row r="383" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP382" s="7"/>
+      <c r="BQ382" s="7"/>
+      <c r="BR382" s="7"/>
+      <c r="BS382" s="7"/>
+    </row>
+    <row r="383" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -26714,8 +28444,12 @@
       <c r="BM383" s="7"/>
       <c r="BN383" s="7"/>
       <c r="BO383" s="7"/>
-    </row>
-    <row r="384" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP383" s="7"/>
+      <c r="BQ383" s="7"/>
+      <c r="BR383" s="7"/>
+      <c r="BS383" s="7"/>
+    </row>
+    <row r="384" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -26781,8 +28515,12 @@
       <c r="BM384" s="7"/>
       <c r="BN384" s="7"/>
       <c r="BO384" s="7"/>
-    </row>
-    <row r="385" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP384" s="7"/>
+      <c r="BQ384" s="7"/>
+      <c r="BR384" s="7"/>
+      <c r="BS384" s="7"/>
+    </row>
+    <row r="385" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -26848,8 +28586,12 @@
       <c r="BM385" s="7"/>
       <c r="BN385" s="7"/>
       <c r="BO385" s="7"/>
-    </row>
-    <row r="386" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP385" s="7"/>
+      <c r="BQ385" s="7"/>
+      <c r="BR385" s="7"/>
+      <c r="BS385" s="7"/>
+    </row>
+    <row r="386" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -26915,8 +28657,12 @@
       <c r="BM386" s="7"/>
       <c r="BN386" s="7"/>
       <c r="BO386" s="7"/>
-    </row>
-    <row r="387" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP386" s="7"/>
+      <c r="BQ386" s="7"/>
+      <c r="BR386" s="7"/>
+      <c r="BS386" s="7"/>
+    </row>
+    <row r="387" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -26982,8 +28728,12 @@
       <c r="BM387" s="7"/>
       <c r="BN387" s="7"/>
       <c r="BO387" s="7"/>
-    </row>
-    <row r="388" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP387" s="7"/>
+      <c r="BQ387" s="7"/>
+      <c r="BR387" s="7"/>
+      <c r="BS387" s="7"/>
+    </row>
+    <row r="388" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -27049,8 +28799,12 @@
       <c r="BM388" s="7"/>
       <c r="BN388" s="7"/>
       <c r="BO388" s="7"/>
-    </row>
-    <row r="389" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP388" s="7"/>
+      <c r="BQ388" s="7"/>
+      <c r="BR388" s="7"/>
+      <c r="BS388" s="7"/>
+    </row>
+    <row r="389" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -27116,8 +28870,12 @@
       <c r="BM389" s="7"/>
       <c r="BN389" s="7"/>
       <c r="BO389" s="7"/>
-    </row>
-    <row r="390" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP389" s="7"/>
+      <c r="BQ389" s="7"/>
+      <c r="BR389" s="7"/>
+      <c r="BS389" s="7"/>
+    </row>
+    <row r="390" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -27183,8 +28941,12 @@
       <c r="BM390" s="7"/>
       <c r="BN390" s="7"/>
       <c r="BO390" s="7"/>
-    </row>
-    <row r="391" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP390" s="7"/>
+      <c r="BQ390" s="7"/>
+      <c r="BR390" s="7"/>
+      <c r="BS390" s="7"/>
+    </row>
+    <row r="391" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -27250,8 +29012,12 @@
       <c r="BM391" s="7"/>
       <c r="BN391" s="7"/>
       <c r="BO391" s="7"/>
-    </row>
-    <row r="392" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP391" s="7"/>
+      <c r="BQ391" s="7"/>
+      <c r="BR391" s="7"/>
+      <c r="BS391" s="7"/>
+    </row>
+    <row r="392" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -27317,8 +29083,12 @@
       <c r="BM392" s="7"/>
       <c r="BN392" s="7"/>
       <c r="BO392" s="7"/>
-    </row>
-    <row r="393" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP392" s="7"/>
+      <c r="BQ392" s="7"/>
+      <c r="BR392" s="7"/>
+      <c r="BS392" s="7"/>
+    </row>
+    <row r="393" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -27384,8 +29154,12 @@
       <c r="BM393" s="7"/>
       <c r="BN393" s="7"/>
       <c r="BO393" s="7"/>
-    </row>
-    <row r="394" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP393" s="7"/>
+      <c r="BQ393" s="7"/>
+      <c r="BR393" s="7"/>
+      <c r="BS393" s="7"/>
+    </row>
+    <row r="394" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -27451,8 +29225,12 @@
       <c r="BM394" s="7"/>
       <c r="BN394" s="7"/>
       <c r="BO394" s="7"/>
-    </row>
-    <row r="395" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP394" s="7"/>
+      <c r="BQ394" s="7"/>
+      <c r="BR394" s="7"/>
+      <c r="BS394" s="7"/>
+    </row>
+    <row r="395" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -27518,8 +29296,12 @@
       <c r="BM395" s="7"/>
       <c r="BN395" s="7"/>
       <c r="BO395" s="7"/>
-    </row>
-    <row r="396" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP395" s="7"/>
+      <c r="BQ395" s="7"/>
+      <c r="BR395" s="7"/>
+      <c r="BS395" s="7"/>
+    </row>
+    <row r="396" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -27585,8 +29367,12 @@
       <c r="BM396" s="7"/>
       <c r="BN396" s="7"/>
       <c r="BO396" s="7"/>
-    </row>
-    <row r="397" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP396" s="7"/>
+      <c r="BQ396" s="7"/>
+      <c r="BR396" s="7"/>
+      <c r="BS396" s="7"/>
+    </row>
+    <row r="397" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -27652,8 +29438,12 @@
       <c r="BM397" s="7"/>
       <c r="BN397" s="7"/>
       <c r="BO397" s="7"/>
-    </row>
-    <row r="398" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP397" s="7"/>
+      <c r="BQ397" s="7"/>
+      <c r="BR397" s="7"/>
+      <c r="BS397" s="7"/>
+    </row>
+    <row r="398" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -27719,8 +29509,12 @@
       <c r="BM398" s="7"/>
       <c r="BN398" s="7"/>
       <c r="BO398" s="7"/>
-    </row>
-    <row r="399" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP398" s="7"/>
+      <c r="BQ398" s="7"/>
+      <c r="BR398" s="7"/>
+      <c r="BS398" s="7"/>
+    </row>
+    <row r="399" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -27786,8 +29580,12 @@
       <c r="BM399" s="7"/>
       <c r="BN399" s="7"/>
       <c r="BO399" s="7"/>
-    </row>
-    <row r="400" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP399" s="7"/>
+      <c r="BQ399" s="7"/>
+      <c r="BR399" s="7"/>
+      <c r="BS399" s="7"/>
+    </row>
+    <row r="400" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -27853,8 +29651,12 @@
       <c r="BM400" s="7"/>
       <c r="BN400" s="7"/>
       <c r="BO400" s="7"/>
-    </row>
-    <row r="401" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP400" s="7"/>
+      <c r="BQ400" s="7"/>
+      <c r="BR400" s="7"/>
+      <c r="BS400" s="7"/>
+    </row>
+    <row r="401" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -27920,8 +29722,12 @@
       <c r="BM401" s="7"/>
       <c r="BN401" s="7"/>
       <c r="BO401" s="7"/>
-    </row>
-    <row r="402" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP401" s="7"/>
+      <c r="BQ401" s="7"/>
+      <c r="BR401" s="7"/>
+      <c r="BS401" s="7"/>
+    </row>
+    <row r="402" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -27987,8 +29793,12 @@
       <c r="BM402" s="7"/>
       <c r="BN402" s="7"/>
       <c r="BO402" s="7"/>
-    </row>
-    <row r="403" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP402" s="7"/>
+      <c r="BQ402" s="7"/>
+      <c r="BR402" s="7"/>
+      <c r="BS402" s="7"/>
+    </row>
+    <row r="403" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -28054,8 +29864,12 @@
       <c r="BM403" s="7"/>
       <c r="BN403" s="7"/>
       <c r="BO403" s="7"/>
-    </row>
-    <row r="404" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP403" s="7"/>
+      <c r="BQ403" s="7"/>
+      <c r="BR403" s="7"/>
+      <c r="BS403" s="7"/>
+    </row>
+    <row r="404" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -28121,8 +29935,12 @@
       <c r="BM404" s="7"/>
       <c r="BN404" s="7"/>
       <c r="BO404" s="7"/>
-    </row>
-    <row r="405" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP404" s="7"/>
+      <c r="BQ404" s="7"/>
+      <c r="BR404" s="7"/>
+      <c r="BS404" s="7"/>
+    </row>
+    <row r="405" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -28188,8 +30006,12 @@
       <c r="BM405" s="7"/>
       <c r="BN405" s="7"/>
       <c r="BO405" s="7"/>
-    </row>
-    <row r="406" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP405" s="7"/>
+      <c r="BQ405" s="7"/>
+      <c r="BR405" s="7"/>
+      <c r="BS405" s="7"/>
+    </row>
+    <row r="406" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -28255,8 +30077,12 @@
       <c r="BM406" s="7"/>
       <c r="BN406" s="7"/>
       <c r="BO406" s="7"/>
-    </row>
-    <row r="407" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP406" s="7"/>
+      <c r="BQ406" s="7"/>
+      <c r="BR406" s="7"/>
+      <c r="BS406" s="7"/>
+    </row>
+    <row r="407" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -28322,8 +30148,12 @@
       <c r="BM407" s="7"/>
       <c r="BN407" s="7"/>
       <c r="BO407" s="7"/>
-    </row>
-    <row r="408" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP407" s="7"/>
+      <c r="BQ407" s="7"/>
+      <c r="BR407" s="7"/>
+      <c r="BS407" s="7"/>
+    </row>
+    <row r="408" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -28389,8 +30219,12 @@
       <c r="BM408" s="7"/>
       <c r="BN408" s="7"/>
       <c r="BO408" s="7"/>
-    </row>
-    <row r="409" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP408" s="7"/>
+      <c r="BQ408" s="7"/>
+      <c r="BR408" s="7"/>
+      <c r="BS408" s="7"/>
+    </row>
+    <row r="409" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -28456,8 +30290,12 @@
       <c r="BM409" s="7"/>
       <c r="BN409" s="7"/>
       <c r="BO409" s="7"/>
-    </row>
-    <row r="410" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP409" s="7"/>
+      <c r="BQ409" s="7"/>
+      <c r="BR409" s="7"/>
+      <c r="BS409" s="7"/>
+    </row>
+    <row r="410" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -28523,8 +30361,12 @@
       <c r="BM410" s="7"/>
       <c r="BN410" s="7"/>
       <c r="BO410" s="7"/>
-    </row>
-    <row r="411" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP410" s="7"/>
+      <c r="BQ410" s="7"/>
+      <c r="BR410" s="7"/>
+      <c r="BS410" s="7"/>
+    </row>
+    <row r="411" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -28590,8 +30432,12 @@
       <c r="BM411" s="7"/>
       <c r="BN411" s="7"/>
       <c r="BO411" s="7"/>
-    </row>
-    <row r="412" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP411" s="7"/>
+      <c r="BQ411" s="7"/>
+      <c r="BR411" s="7"/>
+      <c r="BS411" s="7"/>
+    </row>
+    <row r="412" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -28657,8 +30503,12 @@
       <c r="BM412" s="7"/>
       <c r="BN412" s="7"/>
       <c r="BO412" s="7"/>
-    </row>
-    <row r="413" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP412" s="7"/>
+      <c r="BQ412" s="7"/>
+      <c r="BR412" s="7"/>
+      <c r="BS412" s="7"/>
+    </row>
+    <row r="413" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -28724,8 +30574,12 @@
       <c r="BM413" s="7"/>
       <c r="BN413" s="7"/>
       <c r="BO413" s="7"/>
-    </row>
-    <row r="414" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP413" s="7"/>
+      <c r="BQ413" s="7"/>
+      <c r="BR413" s="7"/>
+      <c r="BS413" s="7"/>
+    </row>
+    <row r="414" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -28791,8 +30645,12 @@
       <c r="BM414" s="7"/>
       <c r="BN414" s="7"/>
       <c r="BO414" s="7"/>
-    </row>
-    <row r="415" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP414" s="7"/>
+      <c r="BQ414" s="7"/>
+      <c r="BR414" s="7"/>
+      <c r="BS414" s="7"/>
+    </row>
+    <row r="415" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -28858,8 +30716,12 @@
       <c r="BM415" s="7"/>
       <c r="BN415" s="7"/>
       <c r="BO415" s="7"/>
-    </row>
-    <row r="416" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP415" s="7"/>
+      <c r="BQ415" s="7"/>
+      <c r="BR415" s="7"/>
+      <c r="BS415" s="7"/>
+    </row>
+    <row r="416" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -28925,8 +30787,12 @@
       <c r="BM416" s="7"/>
       <c r="BN416" s="7"/>
       <c r="BO416" s="7"/>
-    </row>
-    <row r="417" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP416" s="7"/>
+      <c r="BQ416" s="7"/>
+      <c r="BR416" s="7"/>
+      <c r="BS416" s="7"/>
+    </row>
+    <row r="417" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -28992,8 +30858,12 @@
       <c r="BM417" s="7"/>
       <c r="BN417" s="7"/>
       <c r="BO417" s="7"/>
-    </row>
-    <row r="418" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP417" s="7"/>
+      <c r="BQ417" s="7"/>
+      <c r="BR417" s="7"/>
+      <c r="BS417" s="7"/>
+    </row>
+    <row r="418" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -29059,8 +30929,12 @@
       <c r="BM418" s="7"/>
       <c r="BN418" s="7"/>
       <c r="BO418" s="7"/>
-    </row>
-    <row r="419" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP418" s="7"/>
+      <c r="BQ418" s="7"/>
+      <c r="BR418" s="7"/>
+      <c r="BS418" s="7"/>
+    </row>
+    <row r="419" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -29126,8 +31000,12 @@
       <c r="BM419" s="7"/>
       <c r="BN419" s="7"/>
       <c r="BO419" s="7"/>
-    </row>
-    <row r="420" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP419" s="7"/>
+      <c r="BQ419" s="7"/>
+      <c r="BR419" s="7"/>
+      <c r="BS419" s="7"/>
+    </row>
+    <row r="420" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -29193,8 +31071,12 @@
       <c r="BM420" s="7"/>
       <c r="BN420" s="7"/>
       <c r="BO420" s="7"/>
-    </row>
-    <row r="421" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP420" s="7"/>
+      <c r="BQ420" s="7"/>
+      <c r="BR420" s="7"/>
+      <c r="BS420" s="7"/>
+    </row>
+    <row r="421" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -29260,8 +31142,12 @@
       <c r="BM421" s="7"/>
       <c r="BN421" s="7"/>
       <c r="BO421" s="7"/>
-    </row>
-    <row r="422" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP421" s="7"/>
+      <c r="BQ421" s="7"/>
+      <c r="BR421" s="7"/>
+      <c r="BS421" s="7"/>
+    </row>
+    <row r="422" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -29327,8 +31213,12 @@
       <c r="BM422" s="7"/>
       <c r="BN422" s="7"/>
       <c r="BO422" s="7"/>
-    </row>
-    <row r="423" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP422" s="7"/>
+      <c r="BQ422" s="7"/>
+      <c r="BR422" s="7"/>
+      <c r="BS422" s="7"/>
+    </row>
+    <row r="423" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -29394,8 +31284,12 @@
       <c r="BM423" s="7"/>
       <c r="BN423" s="7"/>
       <c r="BO423" s="7"/>
-    </row>
-    <row r="424" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP423" s="7"/>
+      <c r="BQ423" s="7"/>
+      <c r="BR423" s="7"/>
+      <c r="BS423" s="7"/>
+    </row>
+    <row r="424" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -29461,8 +31355,12 @@
       <c r="BM424" s="7"/>
       <c r="BN424" s="7"/>
       <c r="BO424" s="7"/>
-    </row>
-    <row r="425" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP424" s="7"/>
+      <c r="BQ424" s="7"/>
+      <c r="BR424" s="7"/>
+      <c r="BS424" s="7"/>
+    </row>
+    <row r="425" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -29528,8 +31426,12 @@
       <c r="BM425" s="7"/>
       <c r="BN425" s="7"/>
       <c r="BO425" s="7"/>
-    </row>
-    <row r="426" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP425" s="7"/>
+      <c r="BQ425" s="7"/>
+      <c r="BR425" s="7"/>
+      <c r="BS425" s="7"/>
+    </row>
+    <row r="426" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -29595,8 +31497,12 @@
       <c r="BM426" s="7"/>
       <c r="BN426" s="7"/>
       <c r="BO426" s="7"/>
-    </row>
-    <row r="427" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP426" s="7"/>
+      <c r="BQ426" s="7"/>
+      <c r="BR426" s="7"/>
+      <c r="BS426" s="7"/>
+    </row>
+    <row r="427" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -29662,8 +31568,12 @@
       <c r="BM427" s="7"/>
       <c r="BN427" s="7"/>
       <c r="BO427" s="7"/>
-    </row>
-    <row r="428" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP427" s="7"/>
+      <c r="BQ427" s="7"/>
+      <c r="BR427" s="7"/>
+      <c r="BS427" s="7"/>
+    </row>
+    <row r="428" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -29729,8 +31639,12 @@
       <c r="BM428" s="7"/>
       <c r="BN428" s="7"/>
       <c r="BO428" s="7"/>
-    </row>
-    <row r="429" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP428" s="7"/>
+      <c r="BQ428" s="7"/>
+      <c r="BR428" s="7"/>
+      <c r="BS428" s="7"/>
+    </row>
+    <row r="429" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -29796,8 +31710,12 @@
       <c r="BM429" s="7"/>
       <c r="BN429" s="7"/>
       <c r="BO429" s="7"/>
-    </row>
-    <row r="430" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP429" s="7"/>
+      <c r="BQ429" s="7"/>
+      <c r="BR429" s="7"/>
+      <c r="BS429" s="7"/>
+    </row>
+    <row r="430" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -29863,8 +31781,12 @@
       <c r="BM430" s="7"/>
       <c r="BN430" s="7"/>
       <c r="BO430" s="7"/>
-    </row>
-    <row r="431" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP430" s="7"/>
+      <c r="BQ430" s="7"/>
+      <c r="BR430" s="7"/>
+      <c r="BS430" s="7"/>
+    </row>
+    <row r="431" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -29930,8 +31852,12 @@
       <c r="BM431" s="7"/>
       <c r="BN431" s="7"/>
       <c r="BO431" s="7"/>
-    </row>
-    <row r="432" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP431" s="7"/>
+      <c r="BQ431" s="7"/>
+      <c r="BR431" s="7"/>
+      <c r="BS431" s="7"/>
+    </row>
+    <row r="432" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -29997,8 +31923,12 @@
       <c r="BM432" s="7"/>
       <c r="BN432" s="7"/>
       <c r="BO432" s="7"/>
-    </row>
-    <row r="433" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP432" s="7"/>
+      <c r="BQ432" s="7"/>
+      <c r="BR432" s="7"/>
+      <c r="BS432" s="7"/>
+    </row>
+    <row r="433" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -30064,8 +31994,12 @@
       <c r="BM433" s="7"/>
       <c r="BN433" s="7"/>
       <c r="BO433" s="7"/>
-    </row>
-    <row r="434" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP433" s="7"/>
+      <c r="BQ433" s="7"/>
+      <c r="BR433" s="7"/>
+      <c r="BS433" s="7"/>
+    </row>
+    <row r="434" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -30131,8 +32065,12 @@
       <c r="BM434" s="7"/>
       <c r="BN434" s="7"/>
       <c r="BO434" s="7"/>
-    </row>
-    <row r="435" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP434" s="7"/>
+      <c r="BQ434" s="7"/>
+      <c r="BR434" s="7"/>
+      <c r="BS434" s="7"/>
+    </row>
+    <row r="435" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -30198,8 +32136,12 @@
       <c r="BM435" s="7"/>
       <c r="BN435" s="7"/>
       <c r="BO435" s="7"/>
-    </row>
-    <row r="436" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP435" s="7"/>
+      <c r="BQ435" s="7"/>
+      <c r="BR435" s="7"/>
+      <c r="BS435" s="7"/>
+    </row>
+    <row r="436" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -30265,8 +32207,12 @@
       <c r="BM436" s="7"/>
       <c r="BN436" s="7"/>
       <c r="BO436" s="7"/>
-    </row>
-    <row r="437" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP436" s="7"/>
+      <c r="BQ436" s="7"/>
+      <c r="BR436" s="7"/>
+      <c r="BS436" s="7"/>
+    </row>
+    <row r="437" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -30332,8 +32278,12 @@
       <c r="BM437" s="7"/>
       <c r="BN437" s="7"/>
       <c r="BO437" s="7"/>
-    </row>
-    <row r="438" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP437" s="7"/>
+      <c r="BQ437" s="7"/>
+      <c r="BR437" s="7"/>
+      <c r="BS437" s="7"/>
+    </row>
+    <row r="438" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -30399,8 +32349,12 @@
       <c r="BM438" s="7"/>
       <c r="BN438" s="7"/>
       <c r="BO438" s="7"/>
-    </row>
-    <row r="439" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP438" s="7"/>
+      <c r="BQ438" s="7"/>
+      <c r="BR438" s="7"/>
+      <c r="BS438" s="7"/>
+    </row>
+    <row r="439" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -30466,8 +32420,12 @@
       <c r="BM439" s="7"/>
       <c r="BN439" s="7"/>
       <c r="BO439" s="7"/>
-    </row>
-    <row r="440" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP439" s="7"/>
+      <c r="BQ439" s="7"/>
+      <c r="BR439" s="7"/>
+      <c r="BS439" s="7"/>
+    </row>
+    <row r="440" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -30533,8 +32491,12 @@
       <c r="BM440" s="7"/>
       <c r="BN440" s="7"/>
       <c r="BO440" s="7"/>
-    </row>
-    <row r="441" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP440" s="7"/>
+      <c r="BQ440" s="7"/>
+      <c r="BR440" s="7"/>
+      <c r="BS440" s="7"/>
+    </row>
+    <row r="441" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -30600,8 +32562,12 @@
       <c r="BM441" s="7"/>
       <c r="BN441" s="7"/>
       <c r="BO441" s="7"/>
-    </row>
-    <row r="442" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP441" s="7"/>
+      <c r="BQ441" s="7"/>
+      <c r="BR441" s="7"/>
+      <c r="BS441" s="7"/>
+    </row>
+    <row r="442" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -30667,8 +32633,12 @@
       <c r="BM442" s="7"/>
       <c r="BN442" s="7"/>
       <c r="BO442" s="7"/>
-    </row>
-    <row r="443" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP442" s="7"/>
+      <c r="BQ442" s="7"/>
+      <c r="BR442" s="7"/>
+      <c r="BS442" s="7"/>
+    </row>
+    <row r="443" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -30734,8 +32704,12 @@
       <c r="BM443" s="7"/>
       <c r="BN443" s="7"/>
       <c r="BO443" s="7"/>
-    </row>
-    <row r="444" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP443" s="7"/>
+      <c r="BQ443" s="7"/>
+      <c r="BR443" s="7"/>
+      <c r="BS443" s="7"/>
+    </row>
+    <row r="444" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -30801,8 +32775,12 @@
       <c r="BM444" s="7"/>
       <c r="BN444" s="7"/>
       <c r="BO444" s="7"/>
-    </row>
-    <row r="445" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP444" s="7"/>
+      <c r="BQ444" s="7"/>
+      <c r="BR444" s="7"/>
+      <c r="BS444" s="7"/>
+    </row>
+    <row r="445" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -30868,8 +32846,12 @@
       <c r="BM445" s="7"/>
       <c r="BN445" s="7"/>
       <c r="BO445" s="7"/>
-    </row>
-    <row r="446" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP445" s="7"/>
+      <c r="BQ445" s="7"/>
+      <c r="BR445" s="7"/>
+      <c r="BS445" s="7"/>
+    </row>
+    <row r="446" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -30935,8 +32917,12 @@
       <c r="BM446" s="7"/>
       <c r="BN446" s="7"/>
       <c r="BO446" s="7"/>
-    </row>
-    <row r="447" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP446" s="7"/>
+      <c r="BQ446" s="7"/>
+      <c r="BR446" s="7"/>
+      <c r="BS446" s="7"/>
+    </row>
+    <row r="447" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -31002,8 +32988,12 @@
       <c r="BM447" s="7"/>
       <c r="BN447" s="7"/>
       <c r="BO447" s="7"/>
-    </row>
-    <row r="448" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP447" s="7"/>
+      <c r="BQ447" s="7"/>
+      <c r="BR447" s="7"/>
+      <c r="BS447" s="7"/>
+    </row>
+    <row r="448" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -31069,8 +33059,12 @@
       <c r="BM448" s="7"/>
       <c r="BN448" s="7"/>
       <c r="BO448" s="7"/>
-    </row>
-    <row r="449" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP448" s="7"/>
+      <c r="BQ448" s="7"/>
+      <c r="BR448" s="7"/>
+      <c r="BS448" s="7"/>
+    </row>
+    <row r="449" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -31136,8 +33130,12 @@
       <c r="BM449" s="7"/>
       <c r="BN449" s="7"/>
       <c r="BO449" s="7"/>
-    </row>
-    <row r="450" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP449" s="7"/>
+      <c r="BQ449" s="7"/>
+      <c r="BR449" s="7"/>
+      <c r="BS449" s="7"/>
+    </row>
+    <row r="450" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -31203,8 +33201,12 @@
       <c r="BM450" s="7"/>
       <c r="BN450" s="7"/>
       <c r="BO450" s="7"/>
-    </row>
-    <row r="451" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP450" s="7"/>
+      <c r="BQ450" s="7"/>
+      <c r="BR450" s="7"/>
+      <c r="BS450" s="7"/>
+    </row>
+    <row r="451" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -31270,8 +33272,12 @@
       <c r="BM451" s="7"/>
       <c r="BN451" s="7"/>
       <c r="BO451" s="7"/>
-    </row>
-    <row r="452" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP451" s="7"/>
+      <c r="BQ451" s="7"/>
+      <c r="BR451" s="7"/>
+      <c r="BS451" s="7"/>
+    </row>
+    <row r="452" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -31337,8 +33343,12 @@
       <c r="BM452" s="7"/>
       <c r="BN452" s="7"/>
       <c r="BO452" s="7"/>
-    </row>
-    <row r="453" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP452" s="7"/>
+      <c r="BQ452" s="7"/>
+      <c r="BR452" s="7"/>
+      <c r="BS452" s="7"/>
+    </row>
+    <row r="453" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -31404,8 +33414,12 @@
       <c r="BM453" s="7"/>
       <c r="BN453" s="7"/>
       <c r="BO453" s="7"/>
-    </row>
-    <row r="454" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP453" s="7"/>
+      <c r="BQ453" s="7"/>
+      <c r="BR453" s="7"/>
+      <c r="BS453" s="7"/>
+    </row>
+    <row r="454" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -31471,8 +33485,12 @@
       <c r="BM454" s="7"/>
       <c r="BN454" s="7"/>
       <c r="BO454" s="7"/>
-    </row>
-    <row r="455" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP454" s="7"/>
+      <c r="BQ454" s="7"/>
+      <c r="BR454" s="7"/>
+      <c r="BS454" s="7"/>
+    </row>
+    <row r="455" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -31538,8 +33556,12 @@
       <c r="BM455" s="7"/>
       <c r="BN455" s="7"/>
       <c r="BO455" s="7"/>
-    </row>
-    <row r="456" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP455" s="7"/>
+      <c r="BQ455" s="7"/>
+      <c r="BR455" s="7"/>
+      <c r="BS455" s="7"/>
+    </row>
+    <row r="456" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -31605,8 +33627,12 @@
       <c r="BM456" s="7"/>
       <c r="BN456" s="7"/>
       <c r="BO456" s="7"/>
-    </row>
-    <row r="457" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP456" s="7"/>
+      <c r="BQ456" s="7"/>
+      <c r="BR456" s="7"/>
+      <c r="BS456" s="7"/>
+    </row>
+    <row r="457" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -31672,8 +33698,12 @@
       <c r="BM457" s="7"/>
       <c r="BN457" s="7"/>
       <c r="BO457" s="7"/>
-    </row>
-    <row r="458" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP457" s="7"/>
+      <c r="BQ457" s="7"/>
+      <c r="BR457" s="7"/>
+      <c r="BS457" s="7"/>
+    </row>
+    <row r="458" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -31739,8 +33769,12 @@
       <c r="BM458" s="7"/>
       <c r="BN458" s="7"/>
       <c r="BO458" s="7"/>
-    </row>
-    <row r="459" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP458" s="7"/>
+      <c r="BQ458" s="7"/>
+      <c r="BR458" s="7"/>
+      <c r="BS458" s="7"/>
+    </row>
+    <row r="459" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -31806,8 +33840,12 @@
       <c r="BM459" s="7"/>
       <c r="BN459" s="7"/>
       <c r="BO459" s="7"/>
-    </row>
-    <row r="460" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP459" s="7"/>
+      <c r="BQ459" s="7"/>
+      <c r="BR459" s="7"/>
+      <c r="BS459" s="7"/>
+    </row>
+    <row r="460" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -31873,8 +33911,12 @@
       <c r="BM460" s="7"/>
       <c r="BN460" s="7"/>
       <c r="BO460" s="7"/>
-    </row>
-    <row r="461" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP460" s="7"/>
+      <c r="BQ460" s="7"/>
+      <c r="BR460" s="7"/>
+      <c r="BS460" s="7"/>
+    </row>
+    <row r="461" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -31940,8 +33982,12 @@
       <c r="BM461" s="7"/>
       <c r="BN461" s="7"/>
       <c r="BO461" s="7"/>
-    </row>
-    <row r="462" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP461" s="7"/>
+      <c r="BQ461" s="7"/>
+      <c r="BR461" s="7"/>
+      <c r="BS461" s="7"/>
+    </row>
+    <row r="462" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -32007,8 +34053,12 @@
       <c r="BM462" s="7"/>
       <c r="BN462" s="7"/>
       <c r="BO462" s="7"/>
-    </row>
-    <row r="463" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP462" s="7"/>
+      <c r="BQ462" s="7"/>
+      <c r="BR462" s="7"/>
+      <c r="BS462" s="7"/>
+    </row>
+    <row r="463" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -32074,8 +34124,12 @@
       <c r="BM463" s="7"/>
       <c r="BN463" s="7"/>
       <c r="BO463" s="7"/>
-    </row>
-    <row r="464" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP463" s="7"/>
+      <c r="BQ463" s="7"/>
+      <c r="BR463" s="7"/>
+      <c r="BS463" s="7"/>
+    </row>
+    <row r="464" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -32141,8 +34195,12 @@
       <c r="BM464" s="7"/>
       <c r="BN464" s="7"/>
       <c r="BO464" s="7"/>
-    </row>
-    <row r="465" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP464" s="7"/>
+      <c r="BQ464" s="7"/>
+      <c r="BR464" s="7"/>
+      <c r="BS464" s="7"/>
+    </row>
+    <row r="465" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -32208,8 +34266,12 @@
       <c r="BM465" s="7"/>
       <c r="BN465" s="7"/>
       <c r="BO465" s="7"/>
-    </row>
-    <row r="466" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP465" s="7"/>
+      <c r="BQ465" s="7"/>
+      <c r="BR465" s="7"/>
+      <c r="BS465" s="7"/>
+    </row>
+    <row r="466" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -32275,8 +34337,12 @@
       <c r="BM466" s="7"/>
       <c r="BN466" s="7"/>
       <c r="BO466" s="7"/>
-    </row>
-    <row r="467" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP466" s="7"/>
+      <c r="BQ466" s="7"/>
+      <c r="BR466" s="7"/>
+      <c r="BS466" s="7"/>
+    </row>
+    <row r="467" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -32342,8 +34408,12 @@
       <c r="BM467" s="7"/>
       <c r="BN467" s="7"/>
       <c r="BO467" s="7"/>
-    </row>
-    <row r="468" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP467" s="7"/>
+      <c r="BQ467" s="7"/>
+      <c r="BR467" s="7"/>
+      <c r="BS467" s="7"/>
+    </row>
+    <row r="468" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -32409,8 +34479,12 @@
       <c r="BM468" s="7"/>
       <c r="BN468" s="7"/>
       <c r="BO468" s="7"/>
-    </row>
-    <row r="469" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP468" s="7"/>
+      <c r="BQ468" s="7"/>
+      <c r="BR468" s="7"/>
+      <c r="BS468" s="7"/>
+    </row>
+    <row r="469" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -32476,8 +34550,12 @@
       <c r="BM469" s="7"/>
       <c r="BN469" s="7"/>
       <c r="BO469" s="7"/>
-    </row>
-    <row r="470" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP469" s="7"/>
+      <c r="BQ469" s="7"/>
+      <c r="BR469" s="7"/>
+      <c r="BS469" s="7"/>
+    </row>
+    <row r="470" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -32543,8 +34621,12 @@
       <c r="BM470" s="7"/>
       <c r="BN470" s="7"/>
       <c r="BO470" s="7"/>
-    </row>
-    <row r="471" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP470" s="7"/>
+      <c r="BQ470" s="7"/>
+      <c r="BR470" s="7"/>
+      <c r="BS470" s="7"/>
+    </row>
+    <row r="471" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -32610,8 +34692,12 @@
       <c r="BM471" s="7"/>
       <c r="BN471" s="7"/>
       <c r="BO471" s="7"/>
-    </row>
-    <row r="472" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP471" s="7"/>
+      <c r="BQ471" s="7"/>
+      <c r="BR471" s="7"/>
+      <c r="BS471" s="7"/>
+    </row>
+    <row r="472" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -32677,8 +34763,12 @@
       <c r="BM472" s="7"/>
       <c r="BN472" s="7"/>
       <c r="BO472" s="7"/>
-    </row>
-    <row r="473" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP472" s="7"/>
+      <c r="BQ472" s="7"/>
+      <c r="BR472" s="7"/>
+      <c r="BS472" s="7"/>
+    </row>
+    <row r="473" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -32744,8 +34834,12 @@
       <c r="BM473" s="7"/>
       <c r="BN473" s="7"/>
       <c r="BO473" s="7"/>
-    </row>
-    <row r="474" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP473" s="7"/>
+      <c r="BQ473" s="7"/>
+      <c r="BR473" s="7"/>
+      <c r="BS473" s="7"/>
+    </row>
+    <row r="474" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -32811,8 +34905,12 @@
       <c r="BM474" s="7"/>
       <c r="BN474" s="7"/>
       <c r="BO474" s="7"/>
-    </row>
-    <row r="475" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP474" s="7"/>
+      <c r="BQ474" s="7"/>
+      <c r="BR474" s="7"/>
+      <c r="BS474" s="7"/>
+    </row>
+    <row r="475" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -32878,8 +34976,12 @@
       <c r="BM475" s="7"/>
       <c r="BN475" s="7"/>
       <c r="BO475" s="7"/>
-    </row>
-    <row r="476" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP475" s="7"/>
+      <c r="BQ475" s="7"/>
+      <c r="BR475" s="7"/>
+      <c r="BS475" s="7"/>
+    </row>
+    <row r="476" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -32945,8 +35047,12 @@
       <c r="BM476" s="7"/>
       <c r="BN476" s="7"/>
       <c r="BO476" s="7"/>
-    </row>
-    <row r="477" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP476" s="7"/>
+      <c r="BQ476" s="7"/>
+      <c r="BR476" s="7"/>
+      <c r="BS476" s="7"/>
+    </row>
+    <row r="477" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -33012,8 +35118,12 @@
       <c r="BM477" s="7"/>
       <c r="BN477" s="7"/>
       <c r="BO477" s="7"/>
-    </row>
-    <row r="478" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP477" s="7"/>
+      <c r="BQ477" s="7"/>
+      <c r="BR477" s="7"/>
+      <c r="BS477" s="7"/>
+    </row>
+    <row r="478" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -33079,8 +35189,12 @@
       <c r="BM478" s="7"/>
       <c r="BN478" s="7"/>
       <c r="BO478" s="7"/>
-    </row>
-    <row r="479" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP478" s="7"/>
+      <c r="BQ478" s="7"/>
+      <c r="BR478" s="7"/>
+      <c r="BS478" s="7"/>
+    </row>
+    <row r="479" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -33146,8 +35260,12 @@
       <c r="BM479" s="7"/>
       <c r="BN479" s="7"/>
       <c r="BO479" s="7"/>
-    </row>
-    <row r="480" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP479" s="7"/>
+      <c r="BQ479" s="7"/>
+      <c r="BR479" s="7"/>
+      <c r="BS479" s="7"/>
+    </row>
+    <row r="480" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -33213,8 +35331,12 @@
       <c r="BM480" s="7"/>
       <c r="BN480" s="7"/>
       <c r="BO480" s="7"/>
-    </row>
-    <row r="481" spans="3:67" x14ac:dyDescent="0.25">
+      <c r="BP480" s="7"/>
+      <c r="BQ480" s="7"/>
+      <c r="BR480" s="7"/>
+      <c r="BS480" s="7"/>
+    </row>
+    <row r="481" spans="3:71" x14ac:dyDescent="0.25">
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -33280,6 +35402,10 @@
       <c r="BM481" s="7"/>
       <c r="BN481" s="7"/>
       <c r="BO481" s="7"/>
+      <c r="BP481" s="7"/>
+      <c r="BQ481" s="7"/>
+      <c r="BR481" s="7"/>
+      <c r="BS481" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
